--- a/clusteringScoresKmeans.xlsx
+++ b/clusteringScoresKmeans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeProjects\Python\ElectionResultsAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D700845-B19C-4054-A927-F98F6DB6EBC3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1093AC22-60B4-4BCA-9176-15BFDED625DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4036,11 +4036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D1215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B387" sqref="B387"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4056,7 +4055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4070,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4084,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4098,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4112,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4126,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4140,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4154,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4168,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4182,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4210,7 +4209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4224,7 +4223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4266,7 +4265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4280,7 +4279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4308,7 +4307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4322,7 +4321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4336,7 +4335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4350,7 +4349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4364,7 +4363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4378,7 +4377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4392,7 +4391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4406,7 +4405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4420,7 +4419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4434,7 +4433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4448,7 +4447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4490,7 +4489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4504,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4518,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4532,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4546,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4574,7 +4573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4588,7 +4587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4616,7 +4615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4630,7 +4629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4644,7 +4643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4700,7 +4699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4728,7 +4727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4756,7 +4755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4770,7 +4769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4784,7 +4783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4798,7 +4797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4812,7 +4811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4826,7 +4825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4840,7 +4839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4854,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4924,7 +4923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4938,7 +4937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4952,7 +4951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4966,7 +4965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4980,7 +4979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4994,7 +4993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5008,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5022,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5050,7 +5049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5092,7 +5091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5106,7 +5105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5134,7 +5133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5190,7 +5189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5204,7 +5203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5232,7 +5231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5246,7 +5245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5260,7 +5259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5274,7 +5273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5316,7 +5315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5330,7 +5329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5344,7 +5343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5358,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5372,7 +5371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5386,7 +5385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5414,7 +5413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5428,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5442,7 +5441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5456,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5470,7 +5469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5484,7 +5483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5498,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5554,7 +5553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5568,7 +5567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -5582,7 +5581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5610,7 +5609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5638,7 +5637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5652,7 +5651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5694,7 +5693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5708,7 +5707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5722,7 +5721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5736,7 +5735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5750,7 +5749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5764,7 +5763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5778,7 +5777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5792,7 +5791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5806,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5820,7 +5819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5848,7 +5847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5862,7 +5861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5876,7 +5875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5918,7 +5917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5932,7 +5931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5946,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5988,7 +5987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -6016,7 +6015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -6030,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -6044,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -6072,7 +6071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -6086,7 +6085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -6114,7 +6113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -6156,7 +6155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -6170,7 +6169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -6184,7 +6183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -6240,7 +6239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -6310,7 +6309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6338,7 +6337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6380,7 +6379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -6408,7 +6407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -6464,7 +6463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -6478,7 +6477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -6506,7 +6505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -6534,7 +6533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -6548,7 +6547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -6562,7 +6561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -6576,7 +6575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -6618,7 +6617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -6632,7 +6631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -6646,7 +6645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -6660,7 +6659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -6688,7 +6687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -6716,7 +6715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -6730,7 +6729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -6744,7 +6743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -6758,7 +6757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -6786,7 +6785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -6800,7 +6799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -6814,7 +6813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -6828,7 +6827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -6856,7 +6855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -6870,7 +6869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -6898,7 +6897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -6926,7 +6925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -6968,7 +6967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -6982,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -6996,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -7024,7 +7023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -7038,7 +7037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -7052,7 +7051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -7066,7 +7065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -7080,7 +7079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -7094,7 +7093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -7122,7 +7121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -7136,7 +7135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -7150,7 +7149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -7178,7 +7177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -7206,7 +7205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -7220,7 +7219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -7234,7 +7233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -7276,7 +7275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -7290,7 +7289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -7318,7 +7317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -7346,7 +7345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -7360,7 +7359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -7374,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -7388,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -7402,7 +7401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -7416,7 +7415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -7430,7 +7429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -7444,7 +7443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -7500,7 +7499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -7514,7 +7513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -7528,7 +7527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -7542,7 +7541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -7556,7 +7555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -7570,7 +7569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -7626,7 +7625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -7682,7 +7681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -7696,7 +7695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -7724,7 +7723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -7738,7 +7737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -7766,7 +7765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -7794,7 +7793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -7864,7 +7863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -7878,7 +7877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -7892,7 +7891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -7920,7 +7919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -7934,7 +7933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -7976,7 +7975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -8004,7 +8003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -8032,7 +8031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -8074,7 +8073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -8088,7 +8087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -8102,7 +8101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -8130,7 +8129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -8172,7 +8171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -8186,7 +8185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -8242,7 +8241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -8256,7 +8255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -8312,7 +8311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -8326,7 +8325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -8354,7 +8353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -8368,7 +8367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -8382,7 +8381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -8410,7 +8409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -8452,7 +8451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -8508,7 +8507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -8536,7 +8535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -8564,7 +8563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -8578,7 +8577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -8648,7 +8647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -8662,7 +8661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -8704,7 +8703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -8718,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -8732,7 +8731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -8746,7 +8745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -8760,7 +8759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -8788,7 +8787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -8802,7 +8801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -8844,7 +8843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -8858,7 +8857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -8928,7 +8927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -8942,7 +8941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -8956,7 +8955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -8970,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -8984,7 +8983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -9012,7 +9011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -9110,7 +9109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -9124,7 +9123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -9180,7 +9179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -9208,7 +9207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -9222,7 +9221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -9236,7 +9235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -9250,7 +9249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -9278,7 +9277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -9292,7 +9291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -9306,7 +9305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -9320,7 +9319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -9334,7 +9333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -9348,7 +9347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -9362,7 +9361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -9376,7 +9375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -9390,7 +9389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -9404,7 +9403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -9418,7 +9417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -9432,7 +9431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -9446,7 +9445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -9460,7 +9459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -9474,7 +9473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -9502,7 +9501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -9516,7 +9515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -9530,7 +9529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -9558,7 +9557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -9600,7 +9599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -9614,7 +9613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -9656,7 +9655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -9698,7 +9697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -9726,7 +9725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -9740,7 +9739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -9782,7 +9781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -9796,7 +9795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -9810,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -9838,7 +9837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -9852,7 +9851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -9908,7 +9907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -9922,7 +9921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -9950,7 +9949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -9978,7 +9977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -10034,7 +10033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -10048,7 +10047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -10062,7 +10061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -10090,7 +10089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -10104,7 +10103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -10118,7 +10117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -10132,7 +10131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -10146,7 +10145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -10160,7 +10159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -10174,7 +10173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -10188,7 +10187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -10202,7 +10201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -10216,7 +10215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -10244,7 +10243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -10272,7 +10271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -10286,7 +10285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -10300,7 +10299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -10314,7 +10313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -10328,7 +10327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -10342,7 +10341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -10370,7 +10369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -10384,7 +10383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -10412,7 +10411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -10426,7 +10425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -10440,7 +10439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -10496,7 +10495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -10510,7 +10509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -10538,7 +10537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -10580,7 +10579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -10594,7 +10593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -10650,7 +10649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -10664,7 +10663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -10678,7 +10677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -10692,7 +10691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -10706,7 +10705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -10720,7 +10719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -10776,7 +10775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -10790,7 +10789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -10804,7 +10803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -10846,7 +10845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -10860,7 +10859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -10888,7 +10887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -10916,7 +10915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -10944,7 +10943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -10958,7 +10957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -10972,7 +10971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -10986,7 +10985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -11000,7 +10999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -11028,7 +11027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -11042,7 +11041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -11056,7 +11055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -11070,7 +11069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -11084,7 +11083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -11098,7 +11097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -11126,7 +11125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -11140,7 +11139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -11168,7 +11167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -11224,7 +11223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -11280,7 +11279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -11294,7 +11293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -11350,7 +11349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -11378,7 +11377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -11392,7 +11391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -11406,7 +11405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -11420,7 +11419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -11448,7 +11447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -11462,7 +11461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -11476,7 +11475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -11490,7 +11489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -11532,7 +11531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -11546,7 +11545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -11560,7 +11559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -11574,7 +11573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -11588,7 +11587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -11728,7 +11727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -11798,7 +11797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -11812,7 +11811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -11826,7 +11825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -11840,7 +11839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -11868,7 +11867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -11882,7 +11881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -11896,7 +11895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -11924,7 +11923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -11938,7 +11937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -11980,7 +11979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -12008,7 +12007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -12036,7 +12035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="572" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -12064,7 +12063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="574" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -12092,7 +12091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -12134,7 +12133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="579" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -12190,7 +12189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="583" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -12204,7 +12203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -12246,7 +12245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="587" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -12260,7 +12259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="588" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -12274,7 +12273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="589" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -12302,7 +12301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="591" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -12316,7 +12315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -12330,7 +12329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -12372,7 +12371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="596" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -12414,7 +12413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="599" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -12428,7 +12427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -12456,7 +12455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="602" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -12470,7 +12469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="603" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -12498,7 +12497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="605" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -12526,7 +12525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="607" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -12540,7 +12539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -12554,7 +12553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="609" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -12596,7 +12595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="612" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -12610,7 +12609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="613" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -12624,7 +12623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -12638,7 +12637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -12694,7 +12693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="619" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -12708,7 +12707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -12722,7 +12721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="621" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -12778,7 +12777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="625" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -12806,7 +12805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="627" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -12820,7 +12819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -12834,7 +12833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="629" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -12848,7 +12847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -12862,7 +12861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -12876,7 +12875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -12890,7 +12889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -12904,7 +12903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="634" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -12932,7 +12931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="636" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -12946,7 +12945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="637" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -12960,7 +12959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="638" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -12974,7 +12973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="639" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -12988,7 +12987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -13002,7 +13001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -13030,7 +13029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="643" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -13044,7 +13043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -13058,7 +13057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -13072,7 +13071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="646" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -13086,7 +13085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="647" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -13100,7 +13099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="648" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -13156,7 +13155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="652" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -13184,7 +13183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="654" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -13212,7 +13211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="656" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -13226,7 +13225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="657" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -13268,7 +13267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="660" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -13296,7 +13295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="662" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -13324,7 +13323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="664" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -13352,7 +13351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="666" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -13366,7 +13365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -13394,7 +13393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="669" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -13408,7 +13407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -13436,7 +13435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="672" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -13450,7 +13449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -13464,7 +13463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -13492,7 +13491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="676" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -13520,7 +13519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="678" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -13548,7 +13547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="680" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -13562,7 +13561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="681" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -13590,7 +13589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="683" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -13604,7 +13603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="684" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -13632,7 +13631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="686" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -13646,7 +13645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -13660,7 +13659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -13702,7 +13701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="691" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -13716,7 +13715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="692" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -13744,7 +13743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="694" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -13772,7 +13771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="696" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -13786,7 +13785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="697" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -13814,7 +13813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="699" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -13870,7 +13869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="703" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -13884,7 +13883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -13912,7 +13911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="706" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -13940,7 +13939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="708" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -13996,7 +13995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="712" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -14010,7 +14009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="713" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -14024,7 +14023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="714" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -14038,7 +14037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -14080,7 +14079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="718" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>716</v>
       </c>
@@ -14094,7 +14093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="719" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -14108,7 +14107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="720" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -14150,7 +14149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="723" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>721</v>
       </c>
@@ -14164,7 +14163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="724" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>722</v>
       </c>
@@ -14178,7 +14177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="725" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>723</v>
       </c>
@@ -14192,7 +14191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>724</v>
       </c>
@@ -14206,7 +14205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="727" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>725</v>
       </c>
@@ -14220,7 +14219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="728" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -14276,7 +14275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="732" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <v>730</v>
       </c>
@@ -14304,7 +14303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="734" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <v>732</v>
       </c>
@@ -14318,7 +14317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="735" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -14346,7 +14345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="737" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <v>735</v>
       </c>
@@ -14360,7 +14359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="738" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <v>736</v>
       </c>
@@ -14374,7 +14373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="739" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <v>737</v>
       </c>
@@ -14388,7 +14387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="740" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <v>738</v>
       </c>
@@ -14402,7 +14401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="741" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <v>739</v>
       </c>
@@ -14430,7 +14429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="743" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <v>741</v>
       </c>
@@ -14444,7 +14443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <v>742</v>
       </c>
@@ -14472,7 +14471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="746" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <v>744</v>
       </c>
@@ -14500,7 +14499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="748" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <v>746</v>
       </c>
@@ -14514,7 +14513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
         <v>747</v>
       </c>
@@ -14570,7 +14569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="753" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
         <v>751</v>
       </c>
@@ -14584,7 +14583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
         <v>752</v>
       </c>
@@ -14598,7 +14597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
         <v>753</v>
       </c>
@@ -14612,7 +14611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="756" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
         <v>754</v>
       </c>
@@ -14626,7 +14625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="757" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
         <v>755</v>
       </c>
@@ -14654,7 +14653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="759" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
         <v>757</v>
       </c>
@@ -14696,7 +14695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="762" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
         <v>760</v>
       </c>
@@ -14752,7 +14751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="766" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
         <v>764</v>
       </c>
@@ -14794,7 +14793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="769" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
         <v>767</v>
       </c>
@@ -14864,7 +14863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="774" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
         <v>772</v>
       </c>
@@ -14878,7 +14877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
         <v>773</v>
       </c>
@@ -14906,7 +14905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="777" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
         <v>775</v>
       </c>
@@ -14920,7 +14919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="778" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
         <v>776</v>
       </c>
@@ -14948,7 +14947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="780" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
         <v>778</v>
       </c>
@@ -14962,7 +14961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="781" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
         <v>779</v>
       </c>
@@ -14976,7 +14975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="782" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
         <v>780</v>
       </c>
@@ -14990,7 +14989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="783" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
         <v>781</v>
       </c>
@@ -15004,7 +15003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="784" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A784" s="1">
         <v>782</v>
       </c>
@@ -15032,7 +15031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="786" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
         <v>784</v>
       </c>
@@ -15074,7 +15073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="789" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
         <v>787</v>
       </c>
@@ -15088,7 +15087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="790" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
         <v>788</v>
       </c>
@@ -15102,7 +15101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="791" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
         <v>789</v>
       </c>
@@ -15116,7 +15115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
         <v>790</v>
       </c>
@@ -15130,7 +15129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
         <v>791</v>
       </c>
@@ -15172,7 +15171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="796" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
         <v>794</v>
       </c>
@@ -15186,7 +15185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="797" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
         <v>795</v>
       </c>
@@ -15200,7 +15199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
         <v>796</v>
       </c>
@@ -15214,7 +15213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="799" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A799" s="1">
         <v>797</v>
       </c>
@@ -15228,7 +15227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="800" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
         <v>798</v>
       </c>
@@ -15242,7 +15241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="801" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A801" s="1">
         <v>799</v>
       </c>
@@ -15270,7 +15269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="803" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A803" s="1">
         <v>801</v>
       </c>
@@ -15284,7 +15283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="804" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A804" s="1">
         <v>802</v>
       </c>
@@ -15312,7 +15311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="806" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A806" s="1">
         <v>804</v>
       </c>
@@ -15326,7 +15325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A807" s="1">
         <v>805</v>
       </c>
@@ -15354,7 +15353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="809" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A809" s="1">
         <v>807</v>
       </c>
@@ -15368,7 +15367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="810" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A810" s="1">
         <v>808</v>
       </c>
@@ -15382,7 +15381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="811" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A811" s="1">
         <v>809</v>
       </c>
@@ -15396,7 +15395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="812" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A812" s="1">
         <v>810</v>
       </c>
@@ -15410,7 +15409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="813" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A813" s="1">
         <v>811</v>
       </c>
@@ -15466,7 +15465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="817" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A817" s="1">
         <v>815</v>
       </c>
@@ -15480,7 +15479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="818" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A818" s="1">
         <v>816</v>
       </c>
@@ -15494,7 +15493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A819" s="1">
         <v>817</v>
       </c>
@@ -15536,7 +15535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="822" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A822" s="1">
         <v>820</v>
       </c>
@@ -15550,7 +15549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A823" s="1">
         <v>821</v>
       </c>
@@ -15564,7 +15563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A824" s="1">
         <v>822</v>
       </c>
@@ -15578,7 +15577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="825" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A825" s="1">
         <v>823</v>
       </c>
@@ -15592,7 +15591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="826" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A826" s="1">
         <v>824</v>
       </c>
@@ -15606,7 +15605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A827" s="1">
         <v>825</v>
       </c>
@@ -15620,7 +15619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A828" s="1">
         <v>826</v>
       </c>
@@ -15676,7 +15675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="832" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A832" s="1">
         <v>830</v>
       </c>
@@ -15704,7 +15703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="834" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A834" s="1">
         <v>832</v>
       </c>
@@ -15718,7 +15717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A835" s="1">
         <v>833</v>
       </c>
@@ -15746,7 +15745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="837" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A837" s="1">
         <v>835</v>
       </c>
@@ -15760,7 +15759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A838" s="1">
         <v>836</v>
       </c>
@@ -15802,7 +15801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="841" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A841" s="1">
         <v>839</v>
       </c>
@@ -15816,7 +15815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="842" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A842" s="1">
         <v>840</v>
       </c>
@@ -15872,7 +15871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="846" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A846" s="1">
         <v>844</v>
       </c>
@@ -15900,7 +15899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="848" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A848" s="1">
         <v>846</v>
       </c>
@@ -15914,7 +15913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A849" s="1">
         <v>847</v>
       </c>
@@ -15928,7 +15927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A850" s="1">
         <v>848</v>
       </c>
@@ -15942,7 +15941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="851" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A851" s="1">
         <v>849</v>
       </c>
@@ -15970,7 +15969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="853" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A853" s="1">
         <v>851</v>
       </c>
@@ -15984,7 +15983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A854" s="1">
         <v>852</v>
       </c>
@@ -16012,7 +16011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="856" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A856" s="1">
         <v>854</v>
       </c>
@@ -16026,7 +16025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A857" s="1">
         <v>855</v>
       </c>
@@ -16040,7 +16039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A858" s="1">
         <v>856</v>
       </c>
@@ -16068,7 +16067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="860" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A860" s="1">
         <v>858</v>
       </c>
@@ -16082,7 +16081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A861" s="1">
         <v>859</v>
       </c>
@@ -16096,7 +16095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="862" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A862" s="1">
         <v>860</v>
       </c>
@@ -16110,7 +16109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="863" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A863" s="1">
         <v>861</v>
       </c>
@@ -16124,7 +16123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="864" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A864" s="1">
         <v>862</v>
       </c>
@@ -16166,7 +16165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="867" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A867" s="1">
         <v>865</v>
       </c>
@@ -16180,7 +16179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="868" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A868" s="1">
         <v>866</v>
       </c>
@@ -16194,7 +16193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A869" s="1">
         <v>867</v>
       </c>
@@ -16208,7 +16207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A870" s="1">
         <v>868</v>
       </c>
@@ -16236,7 +16235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="872" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A872" s="1">
         <v>870</v>
       </c>
@@ -16250,7 +16249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A873" s="1">
         <v>871</v>
       </c>
@@ -16264,7 +16263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A874" s="1">
         <v>872</v>
       </c>
@@ -16306,7 +16305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="877" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A877" s="1">
         <v>875</v>
       </c>
@@ -16320,7 +16319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="878" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A878" s="1">
         <v>876</v>
       </c>
@@ -16334,7 +16333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="879" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A879" s="1">
         <v>877</v>
       </c>
@@ -16362,7 +16361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="881" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A881" s="1">
         <v>879</v>
       </c>
@@ -16390,7 +16389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="883" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A883" s="1">
         <v>881</v>
       </c>
@@ -16404,7 +16403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="884" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A884" s="1">
         <v>882</v>
       </c>
@@ -16432,7 +16431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="886" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A886" s="1">
         <v>884</v>
       </c>
@@ -16474,7 +16473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="889" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A889" s="1">
         <v>887</v>
       </c>
@@ -16488,7 +16487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="890" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A890" s="1">
         <v>888</v>
       </c>
@@ -16516,7 +16515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="892" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A892" s="1">
         <v>890</v>
       </c>
@@ -16530,7 +16529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A893" s="1">
         <v>891</v>
       </c>
@@ -16544,7 +16543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="894" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A894" s="1">
         <v>892</v>
       </c>
@@ -16558,7 +16557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="895" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A895" s="1">
         <v>893</v>
       </c>
@@ -16572,7 +16571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="896" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A896" s="1">
         <v>894</v>
       </c>
@@ -16586,7 +16585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A897" s="1">
         <v>895</v>
       </c>
@@ -16600,7 +16599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="898" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A898" s="1">
         <v>896</v>
       </c>
@@ -16614,7 +16613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="899" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A899" s="1">
         <v>897</v>
       </c>
@@ -16628,7 +16627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="900" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A900" s="1">
         <v>898</v>
       </c>
@@ -16642,7 +16641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="901" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A901" s="1">
         <v>899</v>
       </c>
@@ -16656,7 +16655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A902" s="1">
         <v>900</v>
       </c>
@@ -16684,7 +16683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="904" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A904" s="1">
         <v>902</v>
       </c>
@@ -16698,7 +16697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A905" s="1">
         <v>903</v>
       </c>
@@ -16712,7 +16711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="906" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A906" s="1">
         <v>904</v>
       </c>
@@ -16852,7 +16851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="916" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A916" s="1">
         <v>914</v>
       </c>
@@ -16866,7 +16865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="917" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A917" s="1">
         <v>915</v>
       </c>
@@ -16936,7 +16935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="922" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A922" s="1">
         <v>920</v>
       </c>
@@ -16992,7 +16991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="926" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A926" s="1">
         <v>924</v>
       </c>
@@ -17020,7 +17019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="928" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A928" s="1">
         <v>926</v>
       </c>
@@ -17034,7 +17033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A929" s="1">
         <v>927</v>
       </c>
@@ -17062,7 +17061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="931" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A931" s="1">
         <v>929</v>
       </c>
@@ -17076,7 +17075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="932" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A932" s="1">
         <v>930</v>
       </c>
@@ -17090,7 +17089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="933" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A933" s="1">
         <v>931</v>
       </c>
@@ -17118,7 +17117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="935" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A935" s="1">
         <v>933</v>
       </c>
@@ -17132,7 +17131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A936" s="1">
         <v>934</v>
       </c>
@@ -17160,7 +17159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="938" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A938" s="1">
         <v>936</v>
       </c>
@@ -17174,7 +17173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="939" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A939" s="1">
         <v>937</v>
       </c>
@@ -17188,7 +17187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="940" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A940" s="1">
         <v>938</v>
       </c>
@@ -17202,7 +17201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="941" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A941" s="1">
         <v>939</v>
       </c>
@@ -17216,7 +17215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="942" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A942" s="1">
         <v>940</v>
       </c>
@@ -17230,7 +17229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="943" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A943" s="1">
         <v>941</v>
       </c>
@@ -17258,7 +17257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="945" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A945" s="1">
         <v>943</v>
       </c>
@@ -17272,7 +17271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="946" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A946" s="1">
         <v>944</v>
       </c>
@@ -17300,7 +17299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="948" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A948" s="1">
         <v>946</v>
       </c>
@@ -17342,7 +17341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="951" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A951" s="1">
         <v>949</v>
       </c>
@@ -17356,7 +17355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="952" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A952" s="1">
         <v>950</v>
       </c>
@@ -17370,7 +17369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="953" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A953" s="1">
         <v>951</v>
       </c>
@@ -17398,7 +17397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="955" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A955" s="1">
         <v>953</v>
       </c>
@@ -17412,7 +17411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="956" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A956" s="1">
         <v>954</v>
       </c>
@@ -17440,7 +17439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="958" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A958" s="1">
         <v>956</v>
       </c>
@@ -17454,7 +17453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A959" s="1">
         <v>957</v>
       </c>
@@ -17468,7 +17467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A960" s="1">
         <v>958</v>
       </c>
@@ -17482,7 +17481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="961" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A961" s="1">
         <v>959</v>
       </c>
@@ -17496,7 +17495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="962" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A962" s="1">
         <v>960</v>
       </c>
@@ -17510,7 +17509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="963" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A963" s="1">
         <v>961</v>
       </c>
@@ -17524,7 +17523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A964" s="1">
         <v>962</v>
       </c>
@@ -17552,7 +17551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="966" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A966" s="1">
         <v>964</v>
       </c>
@@ -17566,7 +17565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="967" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A967" s="1">
         <v>965</v>
       </c>
@@ -17594,7 +17593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="969" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A969" s="1">
         <v>967</v>
       </c>
@@ -17608,7 +17607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="970" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A970" s="1">
         <v>968</v>
       </c>
@@ -17622,7 +17621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="971" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A971" s="1">
         <v>969</v>
       </c>
@@ -17636,7 +17635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="972" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A972" s="1">
         <v>970</v>
       </c>
@@ -17650,7 +17649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="973" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A973" s="1">
         <v>971</v>
       </c>
@@ -17664,7 +17663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="974" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A974" s="1">
         <v>972</v>
       </c>
@@ -17678,7 +17677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="975" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A975" s="1">
         <v>973</v>
       </c>
@@ -17692,7 +17691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A976" s="1">
         <v>974</v>
       </c>
@@ -17706,7 +17705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="977" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A977" s="1">
         <v>975</v>
       </c>
@@ -17734,7 +17733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="979" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A979" s="1">
         <v>977</v>
       </c>
@@ -17748,7 +17747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="980" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A980" s="1">
         <v>978</v>
       </c>
@@ -17762,7 +17761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="981" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A981" s="1">
         <v>979</v>
       </c>
@@ -17776,7 +17775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A982" s="1">
         <v>980</v>
       </c>
@@ -17790,7 +17789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="983" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A983" s="1">
         <v>981</v>
       </c>
@@ -17804,7 +17803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="984" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A984" s="1">
         <v>982</v>
       </c>
@@ -17818,7 +17817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="985" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A985" s="1">
         <v>983</v>
       </c>
@@ -17832,7 +17831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="986" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A986" s="1">
         <v>984</v>
       </c>
@@ -17846,7 +17845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="987" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A987" s="1">
         <v>985</v>
       </c>
@@ -17874,7 +17873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="989" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A989" s="1">
         <v>987</v>
       </c>
@@ -17888,7 +17887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="990" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A990" s="1">
         <v>988</v>
       </c>
@@ -17902,7 +17901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="991" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A991" s="1">
         <v>989</v>
       </c>
@@ -17916,7 +17915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="992" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A992" s="1">
         <v>990</v>
       </c>
@@ -17986,7 +17985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="997" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A997" s="1">
         <v>995</v>
       </c>
@@ -18000,7 +17999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="998" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A998" s="1">
         <v>996</v>
       </c>
@@ -18070,7 +18069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1003" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1003" s="1">
         <v>1001</v>
       </c>
@@ -18112,7 +18111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1006" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1006" s="1">
         <v>1004</v>
       </c>
@@ -18126,7 +18125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1007" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1007" s="1">
         <v>1005</v>
       </c>
@@ -18168,7 +18167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1010" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1010" s="1">
         <v>1008</v>
       </c>
@@ -18182,7 +18181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1011" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1011" s="1">
         <v>1009</v>
       </c>
@@ -18196,7 +18195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1012" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1012" s="1">
         <v>1010</v>
       </c>
@@ -18210,7 +18209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1013" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1013" s="1">
         <v>1011</v>
       </c>
@@ -18224,7 +18223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1014" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1014" s="1">
         <v>1012</v>
       </c>
@@ -18238,7 +18237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1015" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1015" s="1">
         <v>1013</v>
       </c>
@@ -18266,7 +18265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1017" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1017" s="1">
         <v>1015</v>
       </c>
@@ -18280,7 +18279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1018" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1018" s="1">
         <v>1016</v>
       </c>
@@ -18294,7 +18293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1019" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1019" s="1">
         <v>1017</v>
       </c>
@@ -18308,7 +18307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1020" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1020" s="1">
         <v>1018</v>
       </c>
@@ -18336,7 +18335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1022" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1022" s="1">
         <v>1020</v>
       </c>
@@ -18378,7 +18377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1025" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1025" s="1">
         <v>1023</v>
       </c>
@@ -18392,7 +18391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1026" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1026" s="1">
         <v>1024</v>
       </c>
@@ -18406,7 +18405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1027" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1027" s="1">
         <v>1025</v>
       </c>
@@ -18448,7 +18447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1030" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1030" s="1">
         <v>1028</v>
       </c>
@@ -18462,7 +18461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1031" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1031" s="1">
         <v>1029</v>
       </c>
@@ -18476,7 +18475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1032" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1032" s="1">
         <v>1030</v>
       </c>
@@ -18490,7 +18489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1033" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1033" s="1">
         <v>1031</v>
       </c>
@@ -18504,7 +18503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1034" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1034" s="1">
         <v>1032</v>
       </c>
@@ -18532,7 +18531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1036" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1036" s="1">
         <v>1034</v>
       </c>
@@ -18546,7 +18545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1037" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1037" s="1">
         <v>1035</v>
       </c>
@@ -18560,7 +18559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1038" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1038" s="1">
         <v>1036</v>
       </c>
@@ -18574,7 +18573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1039" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1039" s="1">
         <v>1037</v>
       </c>
@@ -18588,7 +18587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1040" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1040" s="1">
         <v>1038</v>
       </c>
@@ -18602,7 +18601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1041" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1041" s="1">
         <v>1039</v>
       </c>
@@ -18616,7 +18615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1042" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1042" s="1">
         <v>1040</v>
       </c>
@@ -18644,7 +18643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1044" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1044" s="1">
         <v>1042</v>
       </c>
@@ -18658,7 +18657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1045" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1045" s="1">
         <v>1043</v>
       </c>
@@ -18672,7 +18671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1046" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1046" s="1">
         <v>1044</v>
       </c>
@@ -18686,7 +18685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1047" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1047" s="1">
         <v>1045</v>
       </c>
@@ -18700,7 +18699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1048" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1048" s="1">
         <v>1046</v>
       </c>
@@ -18728,7 +18727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1050" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1050" s="1">
         <v>1048</v>
       </c>
@@ -18742,7 +18741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1051" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1051" s="1">
         <v>1049</v>
       </c>
@@ -18756,7 +18755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1052" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1052" s="1">
         <v>1050</v>
       </c>
@@ -18770,7 +18769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1053" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1053" s="1">
         <v>1051</v>
       </c>
@@ -18784,7 +18783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1054" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1054" s="1">
         <v>1052</v>
       </c>
@@ -18798,7 +18797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1055" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1055" s="1">
         <v>1053</v>
       </c>
@@ -18812,7 +18811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1056" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1056" s="1">
         <v>1054</v>
       </c>
@@ -18826,7 +18825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1057" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1057" s="1">
         <v>1055</v>
       </c>
@@ -18840,7 +18839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1058" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1058" s="1">
         <v>1056</v>
       </c>
@@ -18854,7 +18853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1059" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1059" s="1">
         <v>1057</v>
       </c>
@@ -18868,7 +18867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1060" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1060" s="1">
         <v>1058</v>
       </c>
@@ -18882,7 +18881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1061" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1061" s="1">
         <v>1059</v>
       </c>
@@ -18952,7 +18951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1066" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1066" s="1">
         <v>1064</v>
       </c>
@@ -18966,7 +18965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1067" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1067" s="1">
         <v>1065</v>
       </c>
@@ -18980,7 +18979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1068" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1068" s="1">
         <v>1066</v>
       </c>
@@ -19008,7 +19007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1070" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1070" s="1">
         <v>1068</v>
       </c>
@@ -19022,7 +19021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1071" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1071" s="1">
         <v>1069</v>
       </c>
@@ -19036,7 +19035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1072" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1072" s="1">
         <v>1070</v>
       </c>
@@ -19050,7 +19049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1073" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1073" s="1">
         <v>1071</v>
       </c>
@@ -19064,7 +19063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1074" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1074" s="1">
         <v>1072</v>
       </c>
@@ -19078,7 +19077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1075" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1075" s="1">
         <v>1073</v>
       </c>
@@ -19106,7 +19105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1077" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1077" s="1">
         <v>1075</v>
       </c>
@@ -19120,7 +19119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1078" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1078" s="1">
         <v>1076</v>
       </c>
@@ -19134,7 +19133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1079" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1079" s="1">
         <v>1077</v>
       </c>
@@ -19148,7 +19147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1080" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1080" s="1">
         <v>1078</v>
       </c>
@@ -19162,7 +19161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1081" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1081" s="1">
         <v>1079</v>
       </c>
@@ -19218,7 +19217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1085" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1085" s="1">
         <v>1083</v>
       </c>
@@ -19246,7 +19245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1087" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1087" s="1">
         <v>1085</v>
       </c>
@@ -19260,7 +19259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1088" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1088" s="1">
         <v>1086</v>
       </c>
@@ -19274,7 +19273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1089" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1089" s="1">
         <v>1087</v>
       </c>
@@ -19358,7 +19357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1095" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1095" s="1">
         <v>1093</v>
       </c>
@@ -19372,7 +19371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1096" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1096" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1096" s="1">
         <v>1094</v>
       </c>
@@ -19400,7 +19399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1098" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1098" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1098" s="1">
         <v>1096</v>
       </c>
@@ -19428,7 +19427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1100" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1100" s="1">
         <v>1098</v>
       </c>
@@ -19456,7 +19455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1102" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1102" s="1">
         <v>1100</v>
       </c>
@@ -19512,7 +19511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1106" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1106" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1106" s="1">
         <v>1104</v>
       </c>
@@ -19526,7 +19525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1107" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1107" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1107" s="1">
         <v>1105</v>
       </c>
@@ -19540,7 +19539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1108" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1108" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1108" s="1">
         <v>1106</v>
       </c>
@@ -19554,7 +19553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1109" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1109" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1109" s="1">
         <v>1107</v>
       </c>
@@ -19568,7 +19567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1110" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1110" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1110" s="1">
         <v>1108</v>
       </c>
@@ -19582,7 +19581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1111" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1111" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1111" s="1">
         <v>1109</v>
       </c>
@@ -19596,7 +19595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1112" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1112" s="1">
         <v>1110</v>
       </c>
@@ -19610,7 +19609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1113" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1113" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1113" s="1">
         <v>1111</v>
       </c>
@@ -19624,7 +19623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1114" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1114" s="1">
         <v>1112</v>
       </c>
@@ -19652,7 +19651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1116" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1116" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1116" s="1">
         <v>1114</v>
       </c>
@@ -19694,7 +19693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1119" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1119" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1119" s="1">
         <v>1117</v>
       </c>
@@ -19708,7 +19707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1120" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1120" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1120" s="1">
         <v>1118</v>
       </c>
@@ -19722,7 +19721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1121" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1121" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1121" s="1">
         <v>1119</v>
       </c>
@@ -19736,7 +19735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1122" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1122" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1122" s="1">
         <v>1120</v>
       </c>
@@ -19778,7 +19777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1125" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1125" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1125" s="1">
         <v>1123</v>
       </c>
@@ -19792,7 +19791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1126" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1126" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1126" s="1">
         <v>1124</v>
       </c>
@@ -19820,7 +19819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1128" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1128" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1128" s="1">
         <v>1126</v>
       </c>
@@ -19862,7 +19861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1131" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1131" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1131" s="1">
         <v>1129</v>
       </c>
@@ -19904,7 +19903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1134" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1134" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1134" s="1">
         <v>1132</v>
       </c>
@@ -19918,7 +19917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1135" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1135" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1135" s="1">
         <v>1133</v>
       </c>
@@ -19932,7 +19931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1136" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1136" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1136" s="1">
         <v>1134</v>
       </c>
@@ -19946,7 +19945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1137" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1137" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1137" s="1">
         <v>1135</v>
       </c>
@@ -19974,7 +19973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1139" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1139" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1139" s="1">
         <v>1137</v>
       </c>
@@ -19988,7 +19987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1140" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1140" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1140" s="1">
         <v>1138</v>
       </c>
@@ -20002,7 +20001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1141" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1141" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1141" s="1">
         <v>1139</v>
       </c>
@@ -20016,7 +20015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1142" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1142" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1142" s="1">
         <v>1140</v>
       </c>
@@ -20030,7 +20029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1143" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1143" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1143" s="1">
         <v>1141</v>
       </c>
@@ -20058,7 +20057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1145" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1145" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1145" s="1">
         <v>1143</v>
       </c>
@@ -20072,7 +20071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1146" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1146" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1146" s="1">
         <v>1144</v>
       </c>
@@ -20086,7 +20085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1147" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1147" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1147" s="1">
         <v>1145</v>
       </c>
@@ -20114,7 +20113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1149" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1149" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1149" s="1">
         <v>1147</v>
       </c>
@@ -20128,7 +20127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1150" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1150" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1150" s="1">
         <v>1148</v>
       </c>
@@ -20142,7 +20141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1151" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1151" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1151" s="1">
         <v>1149</v>
       </c>
@@ -20184,7 +20183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1154" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1154" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1154" s="1">
         <v>1152</v>
       </c>
@@ -20198,7 +20197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1155" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1155" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1155" s="1">
         <v>1153</v>
       </c>
@@ -20212,7 +20211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1156" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1156" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1156" s="1">
         <v>1154</v>
       </c>
@@ -20226,7 +20225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1157" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1157" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1157" s="1">
         <v>1155</v>
       </c>
@@ -20254,7 +20253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1159" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1159" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1159" s="1">
         <v>1157</v>
       </c>
@@ -20296,7 +20295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1162" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1162" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1162" s="1">
         <v>1160</v>
       </c>
@@ -20324,7 +20323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1164" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1164" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1164" s="1">
         <v>1162</v>
       </c>
@@ -20338,7 +20337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1165" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1165" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1165" s="1">
         <v>1163</v>
       </c>
@@ -20352,7 +20351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1166" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1166" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1166" s="1">
         <v>1164</v>
       </c>
@@ -20366,7 +20365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1167" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1167" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1167" s="1">
         <v>1165</v>
       </c>
@@ -20408,7 +20407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1170" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1170" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1170" s="1">
         <v>1168</v>
       </c>
@@ -20422,7 +20421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1171" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1171" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1171" s="1">
         <v>1169</v>
       </c>
@@ -20450,7 +20449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1173" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1173" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1173" s="1">
         <v>1171</v>
       </c>
@@ -20464,7 +20463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1174" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1174" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1174" s="1">
         <v>1172</v>
       </c>
@@ -20478,7 +20477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1175" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1175" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1175" s="1">
         <v>1173</v>
       </c>
@@ -20492,7 +20491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1176" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1176" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1176" s="1">
         <v>1174</v>
       </c>
@@ -20562,7 +20561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1181" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1181" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1181" s="1">
         <v>1179</v>
       </c>
@@ -20576,7 +20575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1182" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1182" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1182" s="1">
         <v>1180</v>
       </c>
@@ -20590,7 +20589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1183" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1183" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1183" s="1">
         <v>1181</v>
       </c>
@@ -20604,7 +20603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1184" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1184" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1184" s="1">
         <v>1182</v>
       </c>
@@ -20618,7 +20617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1185" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1185" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1185" s="1">
         <v>1183</v>
       </c>
@@ -20646,7 +20645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1187" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1187" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1187" s="1">
         <v>1185</v>
       </c>
@@ -20660,7 +20659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1188" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1188" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1188" s="1">
         <v>1186</v>
       </c>
@@ -20688,7 +20687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1190" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1190" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1190" s="1">
         <v>1188</v>
       </c>
@@ -20702,7 +20701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1191" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1191" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1191" s="1">
         <v>1189</v>
       </c>
@@ -20744,7 +20743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1194" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1194" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1194" s="1">
         <v>1192</v>
       </c>
@@ -20758,7 +20757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1195" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1195" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1195" s="1">
         <v>1193</v>
       </c>
@@ -20786,7 +20785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1197" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1197" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1197" s="1">
         <v>1195</v>
       </c>
@@ -20800,7 +20799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1198" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1198" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1198" s="1">
         <v>1196</v>
       </c>
@@ -20814,7 +20813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1199" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1199" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1199" s="1">
         <v>1197</v>
       </c>
@@ -20828,7 +20827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1200" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1200" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1200" s="1">
         <v>1198</v>
       </c>
@@ -20856,7 +20855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1202" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1202" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1202" s="1">
         <v>1200</v>
       </c>
@@ -20884,7 +20883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1204" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1204" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1204" s="1">
         <v>1202</v>
       </c>
@@ -20898,7 +20897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1205" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1205" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1205" s="1">
         <v>1203</v>
       </c>
@@ -20912,7 +20911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1206" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1206" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1206" s="1">
         <v>1204</v>
       </c>
@@ -20940,7 +20939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1208" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1208" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1208" s="1">
         <v>1206</v>
       </c>
@@ -20954,7 +20953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1209" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1209" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1209" s="1">
         <v>1207</v>
       </c>
@@ -20968,7 +20967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1210" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1210" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1210" s="1">
         <v>1208</v>
       </c>
@@ -20982,7 +20981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1211" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1211" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1211" s="1">
         <v>1209</v>
       </c>
@@ -20996,7 +20995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1212" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1212" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1212" s="1">
         <v>1210</v>
       </c>
@@ -21010,7 +21009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1213" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1213" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1213" s="1">
         <v>1211</v>
       </c>
@@ -21024,7 +21023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1214" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1214" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1214" s="1">
         <v>1212</v>
       </c>
@@ -21038,7 +21037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1215" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1215" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1215" s="1">
         <v>1213</v>
       </c>
@@ -21053,13 +21052,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D1215" xr:uid="{6B219422-1653-4483-B680-8C290F3A46D6}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="5"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D1:D1215" xr:uid="{6B219422-1653-4483-B680-8C290F3A46D6}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/clusteringScoresKmeans.xlsx
+++ b/clusteringScoresKmeans.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeProjects\Python\ElectionResultsAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\ML_Analyze_Elections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1093AC22-60B4-4BCA-9176-15BFDED625DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B05E23-68A8-40F4-9BFB-82BA59A9E270}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$1215</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -3691,7 +3691,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3752,7 +3755,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3794,7 +3797,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3826,9 +3829,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3860,6 +3881,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4039,7 +4078,7 @@
   <dimension ref="A1:D1215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4066,7 +4105,7 @@
         <v>967</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4080,7 +4119,7 @@
         <v>472</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4094,7 +4133,7 @@
         <v>473</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4108,7 +4147,7 @@
         <v>958</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4122,7 +4161,7 @@
         <v>968</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4136,7 +4175,7 @@
         <v>1342</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4150,7 +4189,7 @@
         <v>966</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4164,7 +4203,7 @@
         <v>961</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4178,7 +4217,7 @@
         <v>1375</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4192,7 +4231,7 @@
         <v>652</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4206,7 +4245,7 @@
         <v>1275</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4220,7 +4259,7 @@
         <v>679</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4234,7 +4273,7 @@
         <v>1115</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4248,7 +4287,7 @@
         <v>819</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4262,7 +4301,7 @@
         <v>175</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4276,7 +4315,7 @@
         <v>2052</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4290,7 +4329,7 @@
         <v>1070</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4304,7 +4343,7 @@
         <v>1220</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4318,7 +4357,7 @@
         <v>182</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4332,7 +4371,7 @@
         <v>1081</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4346,7 +4385,7 @@
         <v>783</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4402,7 +4441,7 @@
         <v>1311</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4430,7 +4469,7 @@
         <v>113</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4444,7 +4483,7 @@
         <v>1068</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4458,7 +4497,7 @@
         <v>1123</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4472,7 +4511,7 @@
         <v>446</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4486,7 +4525,7 @@
         <v>4010</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4500,7 +4539,7 @@
         <v>1046</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4514,7 +4553,7 @@
         <v>2710</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4528,7 +4567,7 @@
         <v>2024</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4542,7 +4581,7 @@
         <v>1358</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4556,7 +4595,7 @@
         <v>1108</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4570,7 +4609,7 @@
         <v>680</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4584,7 +4623,7 @@
         <v>31</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4598,7 +4637,7 @@
         <v>1294</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4612,7 +4651,7 @@
         <v>67</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4626,7 +4665,7 @@
         <v>2400</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4640,7 +4679,7 @@
         <v>1020</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4654,7 +4693,7 @@
         <v>780</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4668,7 +4707,7 @@
         <v>2012</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4682,7 +4721,7 @@
         <v>4013</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4696,7 +4735,7 @@
         <v>403</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4710,7 +4749,7 @@
         <v>3760</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4724,7 +4763,7 @@
         <v>278</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4738,7 +4777,7 @@
         <v>565</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4752,7 +4791,7 @@
         <v>1157</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4766,7 +4805,7 @@
         <v>821</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4780,7 +4819,7 @@
         <v>1330</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4794,7 +4833,7 @@
         <v>785</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4808,7 +4847,7 @@
         <v>850</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4822,7 +4861,7 @@
         <v>804</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4836,7 +4875,7 @@
         <v>797</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4850,7 +4889,7 @@
         <v>965</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4864,7 +4903,7 @@
         <v>338</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4878,7 +4917,7 @@
         <v>716</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4892,7 +4931,7 @@
         <v>77</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4906,7 +4945,7 @@
         <v>294</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4920,7 +4959,7 @@
         <v>1126</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4934,7 +4973,7 @@
         <v>49</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4948,7 +4987,7 @@
         <v>2600</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4962,7 +5001,7 @@
         <v>1336</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4990,7 +5029,7 @@
         <v>37</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5004,7 +5043,7 @@
         <v>478</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5018,7 +5057,7 @@
         <v>1359</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5032,7 +5071,7 @@
         <v>1316</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5046,7 +5085,7 @@
         <v>4003</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5060,7 +5099,7 @@
         <v>1145</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5074,7 +5113,7 @@
         <v>330</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5088,7 +5127,7 @@
         <v>1182</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5130,7 +5169,7 @@
         <v>429</v>
       </c>
       <c r="D78">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5158,7 +5197,7 @@
         <v>868</v>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5172,7 +5211,7 @@
         <v>285</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5186,7 +5225,7 @@
         <v>4002</v>
       </c>
       <c r="D82">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5200,7 +5239,7 @@
         <v>1365</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5214,7 +5253,7 @@
         <v>41</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5228,7 +5267,7 @@
         <v>1248</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5242,7 +5281,7 @@
         <v>730</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5256,7 +5295,7 @@
         <v>682</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5270,7 +5309,7 @@
         <v>204</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5284,7 +5323,7 @@
         <v>841</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5298,7 +5337,7 @@
         <v>1125</v>
       </c>
       <c r="D90">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5312,7 +5351,7 @@
         <v>3556</v>
       </c>
       <c r="D91">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5326,7 +5365,7 @@
         <v>1309</v>
       </c>
       <c r="D92">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5354,7 +5393,7 @@
         <v>3750</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5368,7 +5407,7 @@
         <v>603</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5396,7 +5435,7 @@
         <v>772</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5410,7 +5449,7 @@
         <v>1064</v>
       </c>
       <c r="D98">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5424,7 +5463,7 @@
         <v>1253</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5452,7 +5491,7 @@
         <v>4012</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5466,7 +5505,7 @@
         <v>960</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5480,7 +5519,7 @@
         <v>3754</v>
       </c>
       <c r="D103">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5494,7 +5533,7 @@
         <v>529</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5508,7 +5547,7 @@
         <v>963</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5522,7 +5561,7 @@
         <v>4301</v>
       </c>
       <c r="D106">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5536,7 +5575,7 @@
         <v>176</v>
       </c>
       <c r="D107">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5550,7 +5589,7 @@
         <v>313</v>
       </c>
       <c r="D108">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5578,7 +5617,7 @@
         <v>701</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5592,7 +5631,7 @@
         <v>3598</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5606,7 +5645,7 @@
         <v>714</v>
       </c>
       <c r="D112">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5620,7 +5659,7 @@
         <v>3570</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5634,7 +5673,7 @@
         <v>1324</v>
       </c>
       <c r="D114">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5648,7 +5687,7 @@
         <v>71</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5662,7 +5701,7 @@
         <v>70</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5676,7 +5715,7 @@
         <v>199</v>
       </c>
       <c r="D117">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5690,7 +5729,7 @@
         <v>188</v>
       </c>
       <c r="D118">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5704,7 +5743,7 @@
         <v>1188</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5718,7 +5757,7 @@
         <v>3722</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5732,7 +5771,7 @@
         <v>2021</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5746,7 +5785,7 @@
         <v>1152</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5760,7 +5799,7 @@
         <v>7100</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5774,7 +5813,7 @@
         <v>1256</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5788,7 +5827,7 @@
         <v>740</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5802,7 +5841,7 @@
         <v>6000</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5816,7 +5855,7 @@
         <v>21</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5830,7 +5869,7 @@
         <v>1376</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5844,7 +5883,7 @@
         <v>155</v>
       </c>
       <c r="D129">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5858,7 +5897,7 @@
         <v>2530</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5872,7 +5911,7 @@
         <v>9000</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5900,7 +5939,7 @@
         <v>697</v>
       </c>
       <c r="D133">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5914,7 +5953,7 @@
         <v>399</v>
       </c>
       <c r="D134">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5928,7 +5967,7 @@
         <v>559</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5942,7 +5981,7 @@
         <v>482</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5956,7 +5995,7 @@
         <v>4001</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5970,7 +6009,7 @@
         <v>698</v>
       </c>
       <c r="D138">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5984,7 +6023,7 @@
         <v>2043</v>
       </c>
       <c r="D139">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5998,7 +6037,7 @@
         <v>762</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6012,7 +6051,7 @@
         <v>234</v>
       </c>
       <c r="D141">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6026,7 +6065,7 @@
         <v>998</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6040,7 +6079,7 @@
         <v>1348</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6054,7 +6093,7 @@
         <v>368</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6068,7 +6107,7 @@
         <v>317</v>
       </c>
       <c r="D145">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6096,7 +6135,7 @@
         <v>562</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6110,7 +6149,7 @@
         <v>95</v>
       </c>
       <c r="D148">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6124,7 +6163,7 @@
         <v>3652</v>
       </c>
       <c r="D149">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6138,7 +6177,7 @@
         <v>480</v>
       </c>
       <c r="D150">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6152,7 +6191,7 @@
         <v>619</v>
       </c>
       <c r="D151">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6180,7 +6219,7 @@
         <v>466</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6194,7 +6233,7 @@
         <v>723</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6208,7 +6247,7 @@
         <v>373</v>
       </c>
       <c r="D155">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6222,7 +6261,7 @@
         <v>322</v>
       </c>
       <c r="D156">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6236,7 +6275,7 @@
         <v>572</v>
       </c>
       <c r="D157">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6250,7 +6289,7 @@
         <v>3645</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6264,7 +6303,7 @@
         <v>242</v>
       </c>
       <c r="D159">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6278,7 +6317,7 @@
         <v>353</v>
       </c>
       <c r="D160">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6292,7 +6331,7 @@
         <v>710</v>
       </c>
       <c r="D161">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6306,7 +6345,7 @@
         <v>143</v>
       </c>
       <c r="D162">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6334,7 +6373,7 @@
         <v>877</v>
       </c>
       <c r="D164">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6348,7 +6387,7 @@
         <v>2033</v>
       </c>
       <c r="D165">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6362,7 +6401,7 @@
         <v>159</v>
       </c>
       <c r="D166">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6376,7 +6415,7 @@
         <v>800</v>
       </c>
       <c r="D167">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6390,7 +6429,7 @@
         <v>1050</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6404,7 +6443,7 @@
         <v>288</v>
       </c>
       <c r="D169">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6418,7 +6457,7 @@
         <v>265</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6432,7 +6471,7 @@
         <v>200</v>
       </c>
       <c r="D171">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6446,7 +6485,7 @@
         <v>326</v>
       </c>
       <c r="D172">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6460,7 +6499,7 @@
         <v>430</v>
       </c>
       <c r="D173">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6474,7 +6513,7 @@
         <v>751</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6488,7 +6527,7 @@
         <v>784</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6502,7 +6541,7 @@
         <v>16</v>
       </c>
       <c r="D176">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6516,7 +6555,7 @@
         <v>672</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6530,7 +6569,7 @@
         <v>202</v>
       </c>
       <c r="D178">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6544,7 +6583,7 @@
         <v>301</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6558,7 +6597,7 @@
         <v>756</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6572,7 +6611,7 @@
         <v>604</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6586,7 +6625,7 @@
         <v>212</v>
       </c>
       <c r="D182">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6600,7 +6639,7 @@
         <v>598</v>
       </c>
       <c r="D183">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6614,7 +6653,7 @@
         <v>365</v>
       </c>
       <c r="D184">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6656,7 +6695,7 @@
         <v>9200</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6670,7 +6709,7 @@
         <v>2610</v>
       </c>
       <c r="D188">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6684,7 +6723,7 @@
         <v>248</v>
       </c>
       <c r="D189">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6698,7 +6737,7 @@
         <v>747</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6712,7 +6751,7 @@
         <v>252</v>
       </c>
       <c r="D191">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6726,7 +6765,7 @@
         <v>3780</v>
       </c>
       <c r="D192">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6740,7 +6779,7 @@
         <v>94</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6754,7 +6793,7 @@
         <v>760</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6768,7 +6807,7 @@
         <v>712</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6782,7 +6821,7 @@
         <v>1084</v>
       </c>
       <c r="D196">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6796,7 +6835,7 @@
         <v>2013</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6810,7 +6849,7 @@
         <v>6100</v>
       </c>
       <c r="D198">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6852,7 +6891,7 @@
         <v>386</v>
       </c>
       <c r="D201">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6866,7 +6905,7 @@
         <v>4015</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6894,7 +6933,7 @@
         <v>448</v>
       </c>
       <c r="D204">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6908,7 +6947,7 @@
         <v>1066</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6922,7 +6961,7 @@
         <v>418</v>
       </c>
       <c r="D206">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6936,7 +6975,7 @@
         <v>588</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6950,7 +6989,7 @@
         <v>685</v>
       </c>
       <c r="D208">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6964,7 +7003,7 @@
         <v>9800</v>
       </c>
       <c r="D209">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6978,7 +7017,7 @@
         <v>1326</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6992,7 +7031,7 @@
         <v>944</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7006,7 +7045,7 @@
         <v>483</v>
       </c>
       <c r="D212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7020,7 +7059,7 @@
         <v>389</v>
       </c>
       <c r="D213">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7034,7 +7073,7 @@
         <v>589</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7048,7 +7087,7 @@
         <v>864</v>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7062,7 +7101,7 @@
         <v>3612</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7076,7 +7115,7 @@
         <v>823</v>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7090,7 +7129,7 @@
         <v>1191</v>
       </c>
       <c r="D218">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7118,7 +7157,7 @@
         <v>428</v>
       </c>
       <c r="D220">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7132,7 +7171,7 @@
         <v>2060</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7146,7 +7185,7 @@
         <v>3710</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7160,7 +7199,7 @@
         <v>746</v>
       </c>
       <c r="D223">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7174,7 +7213,7 @@
         <v>667</v>
       </c>
       <c r="D224">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7188,7 +7227,7 @@
         <v>141</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7202,7 +7241,7 @@
         <v>617</v>
       </c>
       <c r="D226">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7216,7 +7255,7 @@
         <v>3654</v>
       </c>
       <c r="D227">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7230,7 +7269,7 @@
         <v>2038</v>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7244,7 +7283,7 @@
         <v>1323</v>
       </c>
       <c r="D229">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7258,7 +7297,7 @@
         <v>1361</v>
       </c>
       <c r="D230">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7272,7 +7311,7 @@
         <v>1319</v>
       </c>
       <c r="D231">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7286,7 +7325,7 @@
         <v>6200</v>
       </c>
       <c r="D232">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7314,7 +7353,7 @@
         <v>33</v>
       </c>
       <c r="D234">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7328,7 +7367,7 @@
         <v>1292</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7342,7 +7381,7 @@
         <v>485</v>
       </c>
       <c r="D236">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7356,7 +7395,7 @@
         <v>627</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7370,7 +7409,7 @@
         <v>976</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7384,7 +7423,7 @@
         <v>541</v>
       </c>
       <c r="D239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7398,7 +7437,7 @@
         <v>487</v>
       </c>
       <c r="D240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7412,7 +7451,7 @@
         <v>628</v>
       </c>
       <c r="D241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7426,7 +7465,7 @@
         <v>872</v>
       </c>
       <c r="D242">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7440,7 +7479,7 @@
         <v>379</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7454,7 +7493,7 @@
         <v>853</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7468,7 +7507,7 @@
         <v>352</v>
       </c>
       <c r="D245">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7482,7 +7521,7 @@
         <v>424</v>
       </c>
       <c r="D246">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7496,7 +7535,7 @@
         <v>86</v>
       </c>
       <c r="D247">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7510,7 +7549,7 @@
         <v>3763</v>
       </c>
       <c r="D248">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7524,7 +7563,7 @@
         <v>683</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7538,7 +7577,7 @@
         <v>2014</v>
       </c>
       <c r="D250">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7552,7 +7591,7 @@
         <v>3644</v>
       </c>
       <c r="D251">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7566,7 +7605,7 @@
         <v>1344</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7580,7 +7619,7 @@
         <v>1293</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7594,7 +7633,7 @@
         <v>1288</v>
       </c>
       <c r="D254">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7608,7 +7647,7 @@
         <v>147</v>
       </c>
       <c r="D255">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7622,7 +7661,7 @@
         <v>870</v>
       </c>
       <c r="D256">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7636,7 +7675,7 @@
         <v>3730</v>
       </c>
       <c r="D257">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7650,7 +7689,7 @@
         <v>207</v>
       </c>
       <c r="D258">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7664,7 +7703,7 @@
         <v>2018</v>
       </c>
       <c r="D259">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7678,7 +7717,7 @@
         <v>173</v>
       </c>
       <c r="D260">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7692,7 +7731,7 @@
         <v>4021</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7706,7 +7745,7 @@
         <v>787</v>
       </c>
       <c r="D262">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7720,7 +7759,7 @@
         <v>919</v>
       </c>
       <c r="D263">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7734,7 +7773,7 @@
         <v>802</v>
       </c>
       <c r="D264">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7748,7 +7787,7 @@
         <v>360</v>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7762,7 +7801,7 @@
         <v>703</v>
       </c>
       <c r="D266">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7776,7 +7815,7 @@
         <v>681</v>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7790,7 +7829,7 @@
         <v>1077</v>
       </c>
       <c r="D268">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7804,7 +7843,7 @@
         <v>793</v>
       </c>
       <c r="D269">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7818,7 +7857,7 @@
         <v>6300</v>
       </c>
       <c r="D270">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7832,7 +7871,7 @@
         <v>342</v>
       </c>
       <c r="D271">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7846,7 +7885,7 @@
         <v>133</v>
       </c>
       <c r="D272">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7860,7 +7899,7 @@
         <v>35</v>
       </c>
       <c r="D273">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7874,7 +7913,7 @@
         <v>145</v>
       </c>
       <c r="D274">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7888,7 +7927,7 @@
         <v>442</v>
       </c>
       <c r="D275">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7902,7 +7941,7 @@
         <v>2550</v>
       </c>
       <c r="D276">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7916,7 +7955,7 @@
         <v>852</v>
       </c>
       <c r="D277">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7930,7 +7969,7 @@
         <v>755</v>
       </c>
       <c r="D278">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7944,7 +7983,7 @@
         <v>1219</v>
       </c>
       <c r="D279">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7958,7 +7997,7 @@
         <v>457</v>
       </c>
       <c r="D280">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7972,7 +8011,7 @@
         <v>370</v>
       </c>
       <c r="D281">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7986,7 +8025,7 @@
         <v>706</v>
       </c>
       <c r="D282">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8000,7 +8039,7 @@
         <v>196</v>
       </c>
       <c r="D283">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8014,7 +8053,7 @@
         <v>1043</v>
       </c>
       <c r="D284">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8028,7 +8067,7 @@
         <v>1204</v>
       </c>
       <c r="D285">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8042,7 +8081,7 @@
         <v>736</v>
       </c>
       <c r="D286">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8056,7 +8095,7 @@
         <v>262</v>
       </c>
       <c r="D287">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8070,7 +8109,7 @@
         <v>92</v>
       </c>
       <c r="D288">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8084,7 +8123,7 @@
         <v>863</v>
       </c>
       <c r="D289">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8098,7 +8137,7 @@
         <v>1206</v>
       </c>
       <c r="D290">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8126,7 +8165,7 @@
         <v>393</v>
       </c>
       <c r="D292">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8140,7 +8179,7 @@
         <v>3606</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8154,7 +8193,7 @@
         <v>346</v>
       </c>
       <c r="D294">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8168,7 +8207,7 @@
         <v>369</v>
       </c>
       <c r="D295">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8196,7 +8235,7 @@
         <v>1072</v>
       </c>
       <c r="D297">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8210,7 +8249,7 @@
         <v>225</v>
       </c>
       <c r="D298">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8224,7 +8263,7 @@
         <v>239</v>
       </c>
       <c r="D299">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8238,7 +8277,7 @@
         <v>734</v>
       </c>
       <c r="D300">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8252,7 +8291,7 @@
         <v>166</v>
       </c>
       <c r="D301">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8266,7 +8305,7 @@
         <v>1274</v>
       </c>
       <c r="D302">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8280,7 +8319,7 @@
         <v>311</v>
       </c>
       <c r="D303">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8294,7 +8333,7 @@
         <v>144</v>
       </c>
       <c r="D304">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8308,7 +8347,7 @@
         <v>72</v>
       </c>
       <c r="D305">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8322,7 +8361,7 @@
         <v>836</v>
       </c>
       <c r="D306">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8336,7 +8375,7 @@
         <v>549</v>
       </c>
       <c r="D307">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8350,7 +8389,7 @@
         <v>1103</v>
       </c>
       <c r="D308">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8378,7 +8417,7 @@
         <v>862</v>
       </c>
       <c r="D310">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8392,7 +8431,7 @@
         <v>3823</v>
       </c>
       <c r="D311">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8406,7 +8445,7 @@
         <v>218</v>
       </c>
       <c r="D312">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8420,7 +8459,7 @@
         <v>229</v>
       </c>
       <c r="D313">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8434,7 +8473,7 @@
         <v>842</v>
       </c>
       <c r="D314">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8448,7 +8487,7 @@
         <v>463</v>
       </c>
       <c r="D315">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8462,7 +8501,7 @@
         <v>39</v>
       </c>
       <c r="D316">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8476,7 +8515,7 @@
         <v>1129</v>
       </c>
       <c r="D317">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8490,7 +8529,7 @@
         <v>4022</v>
       </c>
       <c r="D318">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8504,7 +8543,7 @@
         <v>305</v>
       </c>
       <c r="D319">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8518,7 +8557,7 @@
         <v>574</v>
       </c>
       <c r="D320">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8532,7 +8571,7 @@
         <v>340</v>
       </c>
       <c r="D321">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8546,7 +8585,7 @@
         <v>128</v>
       </c>
       <c r="D322">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8560,7 +8599,7 @@
         <v>494</v>
       </c>
       <c r="D323">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8574,7 +8613,7 @@
         <v>146</v>
       </c>
       <c r="D324">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8588,7 +8627,7 @@
         <v>489</v>
       </c>
       <c r="D325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8602,7 +8641,7 @@
         <v>849</v>
       </c>
       <c r="D326">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8616,7 +8655,7 @@
         <v>407</v>
       </c>
       <c r="D327">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8630,7 +8669,7 @@
         <v>62</v>
       </c>
       <c r="D328">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8644,7 +8683,7 @@
         <v>79</v>
       </c>
       <c r="D329">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8658,7 +8697,7 @@
         <v>1067</v>
       </c>
       <c r="D330">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8686,7 +8725,7 @@
         <v>738</v>
       </c>
       <c r="D332">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8700,7 +8739,7 @@
         <v>336</v>
       </c>
       <c r="D333">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8714,7 +8753,7 @@
         <v>475</v>
       </c>
       <c r="D334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8728,7 +8767,7 @@
         <v>490</v>
       </c>
       <c r="D335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8742,7 +8781,7 @@
         <v>492</v>
       </c>
       <c r="D336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8756,7 +8795,7 @@
         <v>2200</v>
       </c>
       <c r="D337">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8770,7 +8809,7 @@
         <v>2063</v>
       </c>
       <c r="D338">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8784,7 +8823,7 @@
         <v>300</v>
       </c>
       <c r="D339">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8798,7 +8837,7 @@
         <v>431</v>
       </c>
       <c r="D340">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8812,7 +8851,7 @@
         <v>1317</v>
       </c>
       <c r="D341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8826,7 +8865,7 @@
         <v>303</v>
       </c>
       <c r="D342">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8840,7 +8879,7 @@
         <v>302</v>
       </c>
       <c r="D343">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8854,7 +8893,7 @@
         <v>1241</v>
       </c>
       <c r="D344">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8868,7 +8907,7 @@
         <v>1349</v>
       </c>
       <c r="D345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8882,7 +8921,7 @@
         <v>702</v>
       </c>
       <c r="D346">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8896,7 +8935,7 @@
         <v>675</v>
       </c>
       <c r="D347">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8910,7 +8949,7 @@
         <v>356</v>
       </c>
       <c r="D348">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8924,7 +8963,7 @@
         <v>191</v>
       </c>
       <c r="D349">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8938,7 +8977,7 @@
         <v>9700</v>
       </c>
       <c r="D350">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="351" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8952,7 +8991,7 @@
         <v>726</v>
       </c>
       <c r="D351">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8966,7 +9005,7 @@
         <v>1169</v>
       </c>
       <c r="D352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -8980,7 +9019,7 @@
         <v>956</v>
       </c>
       <c r="D353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9008,7 +9047,7 @@
         <v>250</v>
       </c>
       <c r="D355">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9036,7 +9075,7 @@
         <v>434</v>
       </c>
       <c r="D357">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9050,7 +9089,7 @@
         <v>684</v>
       </c>
       <c r="D358">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9064,7 +9103,7 @@
         <v>1208</v>
       </c>
       <c r="D359">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9078,7 +9117,7 @@
         <v>377</v>
       </c>
       <c r="D360">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9092,7 +9131,7 @@
         <v>677</v>
       </c>
       <c r="D361">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9106,7 +9145,7 @@
         <v>423</v>
       </c>
       <c r="D362">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9120,7 +9159,7 @@
         <v>3769</v>
       </c>
       <c r="D363">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9134,7 +9173,7 @@
         <v>3603</v>
       </c>
       <c r="D364">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9148,7 +9187,7 @@
         <v>1261</v>
       </c>
       <c r="D365">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9162,7 +9201,7 @@
         <v>464</v>
       </c>
       <c r="D366">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9176,7 +9215,7 @@
         <v>1249</v>
       </c>
       <c r="D367">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9190,7 +9229,7 @@
         <v>6400</v>
       </c>
       <c r="D368">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9204,7 +9243,7 @@
         <v>1203</v>
       </c>
       <c r="D369">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9218,7 +9257,7 @@
         <v>3639</v>
       </c>
       <c r="D370">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9232,7 +9271,7 @@
         <v>1133</v>
       </c>
       <c r="D371">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9246,7 +9285,7 @@
         <v>815</v>
       </c>
       <c r="D372">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9260,7 +9299,7 @@
         <v>44</v>
       </c>
       <c r="D373">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9274,7 +9313,7 @@
         <v>584</v>
       </c>
       <c r="D374">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9288,7 +9327,7 @@
         <v>788</v>
       </c>
       <c r="D375">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9302,7 +9341,7 @@
         <v>9300</v>
       </c>
       <c r="D376">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9316,7 +9355,7 @@
         <v>799</v>
       </c>
       <c r="D377">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9330,7 +9369,7 @@
         <v>1290</v>
       </c>
       <c r="D378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9344,7 +9383,7 @@
         <v>1065</v>
       </c>
       <c r="D379">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="380" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9358,7 +9397,7 @@
         <v>816</v>
       </c>
       <c r="D380">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9372,7 +9411,7 @@
         <v>2064</v>
       </c>
       <c r="D381">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="382" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9386,7 +9425,7 @@
         <v>975</v>
       </c>
       <c r="D382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9400,7 +9439,7 @@
         <v>818</v>
       </c>
       <c r="D383">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9414,7 +9453,7 @@
         <v>1321</v>
       </c>
       <c r="D384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9428,7 +9467,7 @@
         <v>235</v>
       </c>
       <c r="D385">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9442,7 +9481,7 @@
         <v>1110</v>
       </c>
       <c r="D386">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9470,7 +9509,7 @@
         <v>717</v>
       </c>
       <c r="D388">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9498,7 +9537,7 @@
         <v>205</v>
       </c>
       <c r="D390">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9512,7 +9551,7 @@
         <v>4026</v>
       </c>
       <c r="D391">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9526,7 +9565,7 @@
         <v>618</v>
       </c>
       <c r="D392">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="393" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9540,7 +9579,7 @@
         <v>6500</v>
       </c>
       <c r="D393">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9554,7 +9593,7 @@
         <v>160</v>
       </c>
       <c r="D394">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9568,7 +9607,7 @@
         <v>6600</v>
       </c>
       <c r="D395">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9582,7 +9621,7 @@
         <v>1239</v>
       </c>
       <c r="D396">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9596,7 +9635,7 @@
         <v>253</v>
       </c>
       <c r="D397">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9610,7 +9649,7 @@
         <v>662</v>
       </c>
       <c r="D398">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="399" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9624,7 +9663,7 @@
         <v>1332</v>
       </c>
       <c r="D399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9638,7 +9677,7 @@
         <v>115</v>
       </c>
       <c r="D400">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9652,7 +9691,7 @@
         <v>374</v>
       </c>
       <c r="D401">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9666,7 +9705,7 @@
         <v>1303</v>
       </c>
       <c r="D402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9680,7 +9719,7 @@
         <v>496</v>
       </c>
       <c r="D403">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9694,7 +9733,7 @@
         <v>355</v>
       </c>
       <c r="D404">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9708,7 +9747,7 @@
         <v>1047</v>
       </c>
       <c r="D405">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9722,7 +9761,7 @@
         <v>219</v>
       </c>
       <c r="D406">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9750,7 +9789,7 @@
         <v>4000</v>
       </c>
       <c r="D408">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="409" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9764,7 +9803,7 @@
         <v>162</v>
       </c>
       <c r="D409">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9778,7 +9817,7 @@
         <v>1272</v>
       </c>
       <c r="D410">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9792,7 +9831,7 @@
         <v>820</v>
       </c>
       <c r="D411">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9806,7 +9845,7 @@
         <v>993</v>
       </c>
       <c r="D412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9834,7 +9873,7 @@
         <v>343</v>
       </c>
       <c r="D414">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9862,7 +9901,7 @@
         <v>3609</v>
       </c>
       <c r="D416">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9876,7 +9915,7 @@
         <v>807</v>
       </c>
       <c r="D417">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9890,7 +9929,7 @@
         <v>280</v>
       </c>
       <c r="D418">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9904,7 +9943,7 @@
         <v>1257</v>
       </c>
       <c r="D419">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9946,7 +9985,7 @@
         <v>90</v>
       </c>
       <c r="D422">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9960,7 +9999,7 @@
         <v>700</v>
       </c>
       <c r="D423">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9974,7 +10013,7 @@
         <v>13</v>
       </c>
       <c r="D424">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9988,7 +10027,7 @@
         <v>2034</v>
       </c>
       <c r="D425">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="426" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10002,7 +10041,7 @@
         <v>406</v>
       </c>
       <c r="D426">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10016,7 +10055,7 @@
         <v>397</v>
       </c>
       <c r="D427">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10030,7 +10069,7 @@
         <v>422</v>
       </c>
       <c r="D428">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10044,7 +10083,7 @@
         <v>1024</v>
       </c>
       <c r="D429">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="430" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10058,7 +10097,7 @@
         <v>1247</v>
       </c>
       <c r="D430">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="431" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10072,7 +10111,7 @@
         <v>3717</v>
       </c>
       <c r="D431">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="432" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10086,7 +10125,7 @@
         <v>1209</v>
       </c>
       <c r="D432">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10114,7 +10153,7 @@
         <v>6700</v>
       </c>
       <c r="D434">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="435" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10128,7 +10167,7 @@
         <v>962</v>
       </c>
       <c r="D435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10142,7 +10181,7 @@
         <v>498</v>
       </c>
       <c r="D436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10156,7 +10195,7 @@
         <v>2730</v>
       </c>
       <c r="D437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10170,7 +10209,7 @@
         <v>497</v>
       </c>
       <c r="D438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10184,7 +10223,7 @@
         <v>2720</v>
       </c>
       <c r="D439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10212,7 +10251,7 @@
         <v>2100</v>
       </c>
       <c r="D441">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="442" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10240,7 +10279,7 @@
         <v>462</v>
       </c>
       <c r="D443">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10254,7 +10293,7 @@
         <v>1181</v>
       </c>
       <c r="D444">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="445" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10268,7 +10307,7 @@
         <v>1177</v>
       </c>
       <c r="D445">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10296,7 +10335,7 @@
         <v>8900</v>
       </c>
       <c r="D447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10310,7 +10349,7 @@
         <v>547</v>
       </c>
       <c r="D448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10352,7 +10391,7 @@
         <v>1295</v>
       </c>
       <c r="D451">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="452" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10366,7 +10405,7 @@
         <v>1232</v>
       </c>
       <c r="D452">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10380,7 +10419,7 @@
         <v>46</v>
       </c>
       <c r="D453">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="454" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10394,7 +10433,7 @@
         <v>2660</v>
       </c>
       <c r="D454">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="455" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10408,7 +10447,7 @@
         <v>96</v>
       </c>
       <c r="D455">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10422,7 +10461,7 @@
         <v>798</v>
       </c>
       <c r="D456">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="457" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10450,7 +10489,7 @@
         <v>1134</v>
       </c>
       <c r="D458">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="459" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10464,7 +10503,7 @@
         <v>758</v>
       </c>
       <c r="D459">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10478,7 +10517,7 @@
         <v>358</v>
       </c>
       <c r="D460">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10492,7 +10531,7 @@
         <v>775</v>
       </c>
       <c r="D461">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10506,7 +10545,7 @@
         <v>64</v>
       </c>
       <c r="D462">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="463" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10520,7 +10559,7 @@
         <v>9400</v>
       </c>
       <c r="D463">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="464" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10534,7 +10573,7 @@
         <v>1158</v>
       </c>
       <c r="D464">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10548,7 +10587,7 @@
         <v>2009</v>
       </c>
       <c r="D465">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="466" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10562,7 +10601,7 @@
         <v>1226</v>
       </c>
       <c r="D466">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10576,7 +10615,7 @@
         <v>1112</v>
       </c>
       <c r="D467">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10604,7 +10643,7 @@
         <v>803</v>
       </c>
       <c r="D469">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="470" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10618,7 +10657,7 @@
         <v>452</v>
       </c>
       <c r="D470">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10632,7 +10671,7 @@
         <v>409</v>
       </c>
       <c r="D471">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10646,7 +10685,7 @@
         <v>866</v>
       </c>
       <c r="D472">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10674,7 +10713,7 @@
         <v>811</v>
       </c>
       <c r="D474">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10688,7 +10727,7 @@
         <v>753</v>
       </c>
       <c r="D475">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="476" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10702,7 +10741,7 @@
         <v>2011</v>
       </c>
       <c r="D476">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="477" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10716,7 +10755,7 @@
         <v>29</v>
       </c>
       <c r="D477">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="478" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10730,7 +10769,7 @@
         <v>440</v>
       </c>
       <c r="D478">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10744,7 +10783,7 @@
         <v>575</v>
       </c>
       <c r="D479">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10758,7 +10797,7 @@
         <v>1138</v>
       </c>
       <c r="D480">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10772,7 +10811,7 @@
         <v>1044</v>
       </c>
       <c r="D481">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10786,7 +10825,7 @@
         <v>795</v>
       </c>
       <c r="D482">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="483" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10800,7 +10839,7 @@
         <v>499</v>
       </c>
       <c r="D483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10814,7 +10853,7 @@
         <v>3566</v>
       </c>
       <c r="D484">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="485" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10828,7 +10867,7 @@
         <v>134</v>
       </c>
       <c r="D485">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10842,7 +10881,7 @@
         <v>453</v>
       </c>
       <c r="D486">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10870,7 +10909,7 @@
         <v>759</v>
       </c>
       <c r="D488">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="489" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10884,7 +10923,7 @@
         <v>417</v>
       </c>
       <c r="D489">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10912,7 +10951,7 @@
         <v>241</v>
       </c>
       <c r="D491">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10926,7 +10965,7 @@
         <v>240</v>
       </c>
       <c r="D492">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="493" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10940,7 +10979,7 @@
         <v>623</v>
       </c>
       <c r="D493">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10954,7 +10993,7 @@
         <v>2026</v>
       </c>
       <c r="D494">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="495" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10968,7 +11007,7 @@
         <v>831</v>
       </c>
       <c r="D495">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="496" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10982,7 +11021,7 @@
         <v>3000</v>
       </c>
       <c r="D496">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10996,7 +11035,7 @@
         <v>718</v>
       </c>
       <c r="D497">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="498" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11010,7 +11049,7 @@
         <v>502</v>
       </c>
       <c r="D498">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="499" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11024,7 +11063,7 @@
         <v>183</v>
       </c>
       <c r="D499">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11038,7 +11077,7 @@
         <v>916</v>
       </c>
       <c r="D500">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="501" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11052,7 +11091,7 @@
         <v>805</v>
       </c>
       <c r="D501">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="502" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11066,7 +11105,7 @@
         <v>828</v>
       </c>
       <c r="D502">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="503" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11080,7 +11119,7 @@
         <v>1227</v>
       </c>
       <c r="D503">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="504" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11094,7 +11133,7 @@
         <v>504</v>
       </c>
       <c r="D504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11108,7 +11147,7 @@
         <v>505</v>
       </c>
       <c r="D505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11122,7 +11161,7 @@
         <v>576</v>
       </c>
       <c r="D506">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11136,7 +11175,7 @@
         <v>1338</v>
       </c>
       <c r="D507">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="508" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11164,7 +11203,7 @@
         <v>1224</v>
       </c>
       <c r="D509">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11178,7 +11217,7 @@
         <v>3779</v>
       </c>
       <c r="D510">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11192,7 +11231,7 @@
         <v>824</v>
       </c>
       <c r="D511">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11206,7 +11245,7 @@
         <v>1252</v>
       </c>
       <c r="D512">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11220,7 +11259,7 @@
         <v>1210</v>
       </c>
       <c r="D513">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11234,7 +11273,7 @@
         <v>1367</v>
       </c>
       <c r="D514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11248,7 +11287,7 @@
         <v>840</v>
       </c>
       <c r="D515">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11262,7 +11301,7 @@
         <v>1153</v>
       </c>
       <c r="D516">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11276,7 +11315,7 @@
         <v>1183</v>
       </c>
       <c r="D517">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11290,7 +11329,7 @@
         <v>1229</v>
       </c>
       <c r="D518">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="519" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11304,7 +11343,7 @@
         <v>1331</v>
       </c>
       <c r="D519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11318,7 +11357,7 @@
         <v>1291</v>
       </c>
       <c r="D520">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11332,7 +11371,7 @@
         <v>1201</v>
       </c>
       <c r="D521">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11346,7 +11385,7 @@
         <v>4028</v>
       </c>
       <c r="D522">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11360,7 +11399,7 @@
         <v>63</v>
       </c>
       <c r="D523">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="524" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11374,7 +11413,7 @@
         <v>57</v>
       </c>
       <c r="D524">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11388,7 +11427,7 @@
         <v>1059</v>
       </c>
       <c r="D525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11402,7 +11441,7 @@
         <v>859</v>
       </c>
       <c r="D526">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="527" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11416,7 +11455,7 @@
         <v>1296</v>
       </c>
       <c r="D527">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="528" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11430,7 +11469,7 @@
         <v>978</v>
       </c>
       <c r="D528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11444,7 +11483,7 @@
         <v>857</v>
       </c>
       <c r="D529">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11472,7 +11511,7 @@
         <v>364</v>
       </c>
       <c r="D531">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="532" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11486,7 +11525,7 @@
         <v>690</v>
       </c>
       <c r="D532">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="533" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11500,7 +11539,7 @@
         <v>220</v>
       </c>
       <c r="D533">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="534" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11514,7 +11553,7 @@
         <v>177</v>
       </c>
       <c r="D534">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11528,7 +11567,7 @@
         <v>357</v>
       </c>
       <c r="D535">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11542,7 +11581,7 @@
         <v>2010</v>
       </c>
       <c r="D536">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="537" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11556,7 +11595,7 @@
         <v>633</v>
       </c>
       <c r="D537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11570,7 +11609,7 @@
         <v>132</v>
       </c>
       <c r="D538">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="539" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11584,7 +11623,7 @@
         <v>106</v>
       </c>
       <c r="D539">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11598,7 +11637,7 @@
         <v>427</v>
       </c>
       <c r="D540">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="541" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11612,7 +11651,7 @@
         <v>310</v>
       </c>
       <c r="D541">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11626,7 +11665,7 @@
         <v>76</v>
       </c>
       <c r="D542">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11640,7 +11679,7 @@
         <v>707</v>
       </c>
       <c r="D543">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11654,7 +11693,7 @@
         <v>3796</v>
       </c>
       <c r="D544">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11668,7 +11707,7 @@
         <v>192</v>
       </c>
       <c r="D545">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11682,7 +11721,7 @@
         <v>254</v>
       </c>
       <c r="D546">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11696,7 +11735,7 @@
         <v>582</v>
       </c>
       <c r="D547">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11710,7 +11749,7 @@
         <v>443</v>
       </c>
       <c r="D548">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11724,7 +11763,7 @@
         <v>187</v>
       </c>
       <c r="D549">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11752,7 +11791,7 @@
         <v>888</v>
       </c>
       <c r="D551">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11766,7 +11805,7 @@
         <v>190</v>
       </c>
       <c r="D552">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11780,7 +11819,7 @@
         <v>320</v>
       </c>
       <c r="D553">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11794,7 +11833,7 @@
         <v>1263</v>
       </c>
       <c r="D554">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11808,7 +11847,7 @@
         <v>786</v>
       </c>
       <c r="D555">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="556" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11822,7 +11861,7 @@
         <v>696</v>
       </c>
       <c r="D556">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11836,7 +11875,7 @@
         <v>609</v>
       </c>
       <c r="D557">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="558" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11850,7 +11889,7 @@
         <v>255</v>
       </c>
       <c r="D558">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="559" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11864,7 +11903,7 @@
         <v>193</v>
       </c>
       <c r="D559">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11878,7 +11917,7 @@
         <v>1297</v>
       </c>
       <c r="D560">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="561" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11892,7 +11931,7 @@
         <v>112</v>
       </c>
       <c r="D561">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="562" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11906,7 +11945,7 @@
         <v>889</v>
       </c>
       <c r="D562">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="563" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11920,7 +11959,7 @@
         <v>4004</v>
       </c>
       <c r="D563">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11934,7 +11973,7 @@
         <v>673</v>
       </c>
       <c r="D564">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="565" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11948,7 +11987,7 @@
         <v>507</v>
       </c>
       <c r="D565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11962,7 +12001,7 @@
         <v>233</v>
       </c>
       <c r="D566">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11976,7 +12015,7 @@
         <v>140</v>
       </c>
       <c r="D567">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11990,7 +12029,7 @@
         <v>168</v>
       </c>
       <c r="D568">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="569" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12004,7 +12043,7 @@
         <v>85</v>
       </c>
       <c r="D569">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12018,7 +12057,7 @@
         <v>170</v>
       </c>
       <c r="D570">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="571" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12032,7 +12071,7 @@
         <v>508</v>
       </c>
       <c r="D571">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12046,7 +12085,7 @@
         <v>509</v>
       </c>
       <c r="D572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12060,7 +12099,7 @@
         <v>387</v>
       </c>
       <c r="D573">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12088,7 +12127,7 @@
         <v>98</v>
       </c>
       <c r="D575">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12102,7 +12141,7 @@
         <v>510</v>
       </c>
       <c r="D576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12116,7 +12155,7 @@
         <v>274</v>
       </c>
       <c r="D577">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12130,7 +12169,7 @@
         <v>297</v>
       </c>
       <c r="D578">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12144,7 +12183,7 @@
         <v>512</v>
       </c>
       <c r="D579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12158,7 +12197,7 @@
         <v>764</v>
       </c>
       <c r="D580">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12172,7 +12211,7 @@
         <v>316</v>
       </c>
       <c r="D581">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12186,7 +12225,7 @@
         <v>345</v>
       </c>
       <c r="D582">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12200,7 +12239,7 @@
         <v>6900</v>
       </c>
       <c r="D583">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="584" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12214,7 +12253,7 @@
         <v>107</v>
       </c>
       <c r="D584">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="585" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12228,7 +12267,7 @@
         <v>249</v>
       </c>
       <c r="D585">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12242,7 +12281,7 @@
         <v>845</v>
       </c>
       <c r="D586">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12284,7 +12323,7 @@
         <v>634</v>
       </c>
       <c r="D589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12298,7 +12337,7 @@
         <v>388</v>
       </c>
       <c r="D590">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12312,7 +12351,7 @@
         <v>654</v>
       </c>
       <c r="D591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12326,7 +12365,7 @@
         <v>579</v>
       </c>
       <c r="D592">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="593" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12340,7 +12379,7 @@
         <v>1130</v>
       </c>
       <c r="D593">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="594" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12354,7 +12393,7 @@
         <v>295</v>
       </c>
       <c r="D594">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12368,7 +12407,7 @@
         <v>1166</v>
       </c>
       <c r="D595">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12382,7 +12421,7 @@
         <v>605</v>
       </c>
       <c r="D596">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="597" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12396,7 +12435,7 @@
         <v>743</v>
       </c>
       <c r="D597">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12410,7 +12449,7 @@
         <v>267</v>
       </c>
       <c r="D598">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12424,7 +12463,7 @@
         <v>47</v>
       </c>
       <c r="D599">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="600" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12452,7 +12491,7 @@
         <v>1285</v>
       </c>
       <c r="D601">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12466,7 +12505,7 @@
         <v>664</v>
       </c>
       <c r="D602">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="603" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12494,7 +12533,7 @@
         <v>580</v>
       </c>
       <c r="D604">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12508,7 +12547,7 @@
         <v>1085</v>
       </c>
       <c r="D605">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="606" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12522,7 +12561,7 @@
         <v>1264</v>
       </c>
       <c r="D606">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12564,7 +12603,7 @@
         <v>1139</v>
       </c>
       <c r="D609">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="610" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12578,7 +12617,7 @@
         <v>768</v>
       </c>
       <c r="D610">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12592,7 +12631,7 @@
         <v>1198</v>
       </c>
       <c r="D611">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12620,7 +12659,7 @@
         <v>1207</v>
       </c>
       <c r="D613">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="614" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12648,7 +12687,7 @@
         <v>1230</v>
       </c>
       <c r="D615">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="616" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12662,7 +12701,7 @@
         <v>2023</v>
       </c>
       <c r="D616">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12676,7 +12715,7 @@
         <v>380</v>
       </c>
       <c r="D617">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12690,7 +12729,7 @@
         <v>715</v>
       </c>
       <c r="D618">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12704,7 +12743,7 @@
         <v>1271</v>
       </c>
       <c r="D619">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="620" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12718,7 +12757,7 @@
         <v>7000</v>
       </c>
       <c r="D620">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="621" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12732,7 +12771,7 @@
         <v>52</v>
       </c>
       <c r="D621">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="622" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12746,7 +12785,7 @@
         <v>595</v>
       </c>
       <c r="D622">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12760,7 +12799,7 @@
         <v>1171</v>
       </c>
       <c r="D623">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12774,7 +12813,7 @@
         <v>1255</v>
       </c>
       <c r="D624">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12788,7 +12827,7 @@
         <v>674</v>
       </c>
       <c r="D625">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="626" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12802,7 +12841,7 @@
         <v>24</v>
       </c>
       <c r="D626">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12816,7 +12855,7 @@
         <v>1310</v>
       </c>
       <c r="D627">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="628" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12830,7 +12869,7 @@
         <v>1173</v>
       </c>
       <c r="D628">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="629" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12844,7 +12883,7 @@
         <v>1060</v>
       </c>
       <c r="D629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12858,7 +12897,7 @@
         <v>2055</v>
       </c>
       <c r="D630">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="631" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12872,7 +12911,7 @@
         <v>102</v>
       </c>
       <c r="D631">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="632" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12886,7 +12925,7 @@
         <v>771</v>
       </c>
       <c r="D632">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="633" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12900,7 +12939,7 @@
         <v>3569</v>
       </c>
       <c r="D633">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="634" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12928,7 +12967,7 @@
         <v>4204</v>
       </c>
       <c r="D635">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12942,7 +12981,7 @@
         <v>1141</v>
       </c>
       <c r="D636">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="637" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12956,7 +12995,7 @@
         <v>1080</v>
       </c>
       <c r="D637">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="638" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12970,7 +13009,7 @@
         <v>829</v>
       </c>
       <c r="D638">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="639" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12984,7 +13023,7 @@
         <v>573</v>
       </c>
       <c r="D639">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="640" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -12998,7 +13037,7 @@
         <v>1015</v>
       </c>
       <c r="D640">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="641" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13012,7 +13051,7 @@
         <v>516</v>
       </c>
       <c r="D641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13026,7 +13065,7 @@
         <v>4201</v>
       </c>
       <c r="D642">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13040,7 +13079,7 @@
         <v>481</v>
       </c>
       <c r="D643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13054,7 +13093,7 @@
         <v>689</v>
       </c>
       <c r="D644">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="645" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13068,7 +13107,7 @@
         <v>65</v>
       </c>
       <c r="D645">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="646" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13082,7 +13121,7 @@
         <v>874</v>
       </c>
       <c r="D646">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="647" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13124,7 +13163,7 @@
         <v>586</v>
       </c>
       <c r="D649">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13138,7 +13177,7 @@
         <v>375</v>
       </c>
       <c r="D650">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13152,7 +13191,7 @@
         <v>695</v>
       </c>
       <c r="D651">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13166,7 +13205,7 @@
         <v>1155</v>
       </c>
       <c r="D652">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="653" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13180,7 +13219,7 @@
         <v>722</v>
       </c>
       <c r="D653">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13194,7 +13233,7 @@
         <v>2029</v>
       </c>
       <c r="D654">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="655" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13208,7 +13247,7 @@
         <v>1140</v>
       </c>
       <c r="D655">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13222,7 +13261,7 @@
         <v>3797</v>
       </c>
       <c r="D656">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13236,7 +13275,7 @@
         <v>1200</v>
       </c>
       <c r="D657">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="658" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13250,7 +13289,7 @@
         <v>269</v>
       </c>
       <c r="D658">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13264,7 +13303,7 @@
         <v>208</v>
       </c>
       <c r="D659">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13278,7 +13317,7 @@
         <v>635</v>
       </c>
       <c r="D660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13292,7 +13331,7 @@
         <v>1163</v>
       </c>
       <c r="D661">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13320,7 +13359,7 @@
         <v>606</v>
       </c>
       <c r="D663">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13334,7 +13373,7 @@
         <v>28</v>
       </c>
       <c r="D664">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="665" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13348,7 +13387,7 @@
         <v>104</v>
       </c>
       <c r="D665">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13362,7 +13401,7 @@
         <v>517</v>
       </c>
       <c r="D666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13390,7 +13429,7 @@
         <v>1411</v>
       </c>
       <c r="D668">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13404,7 +13443,7 @@
         <v>1418</v>
       </c>
       <c r="D669">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="670" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13418,7 +13457,7 @@
         <v>1413</v>
       </c>
       <c r="D670">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="671" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13432,7 +13471,7 @@
         <v>1416</v>
       </c>
       <c r="D671">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13446,7 +13485,7 @@
         <v>1415</v>
       </c>
       <c r="D672">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="673" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13460,7 +13499,7 @@
         <v>1414</v>
       </c>
       <c r="D673">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="674" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13474,7 +13513,7 @@
         <v>1412</v>
       </c>
       <c r="D674">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="675" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13488,7 +13527,7 @@
         <v>308</v>
       </c>
       <c r="D675">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13502,7 +13541,7 @@
         <v>776</v>
       </c>
       <c r="D676">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="677" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13516,7 +13555,7 @@
         <v>43</v>
       </c>
       <c r="D677">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13530,7 +13569,7 @@
         <v>822</v>
       </c>
       <c r="D678">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="679" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13544,7 +13583,7 @@
         <v>1128</v>
       </c>
       <c r="D679">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13558,7 +13597,7 @@
         <v>2054</v>
       </c>
       <c r="D680">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="681" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13572,7 +13611,7 @@
         <v>649</v>
       </c>
       <c r="D681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13586,7 +13625,7 @@
         <v>4019</v>
       </c>
       <c r="D682">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13614,7 +13653,7 @@
         <v>607</v>
       </c>
       <c r="D684">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13628,7 +13667,7 @@
         <v>731</v>
       </c>
       <c r="D685">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13642,7 +13681,7 @@
         <v>1268</v>
       </c>
       <c r="D686">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="687" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13656,7 +13695,7 @@
         <v>3614</v>
       </c>
       <c r="D687">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="688" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13670,7 +13709,7 @@
         <v>1343</v>
       </c>
       <c r="D688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13684,7 +13723,7 @@
         <v>382</v>
       </c>
       <c r="D689">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13698,7 +13737,7 @@
         <v>1202</v>
       </c>
       <c r="D690">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13712,7 +13751,7 @@
         <v>164</v>
       </c>
       <c r="D691">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="692" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13726,7 +13765,7 @@
         <v>2044</v>
       </c>
       <c r="D692">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="693" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13740,7 +13779,7 @@
         <v>596</v>
       </c>
       <c r="D693">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13754,7 +13793,7 @@
         <v>2030</v>
       </c>
       <c r="D694">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="695" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13768,7 +13807,7 @@
         <v>1174</v>
       </c>
       <c r="D695">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13782,7 +13821,7 @@
         <v>1205</v>
       </c>
       <c r="D696">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="697" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13796,7 +13835,7 @@
         <v>48</v>
       </c>
       <c r="D697">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="698" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13810,7 +13849,7 @@
         <v>347</v>
       </c>
       <c r="D698">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13824,7 +13863,7 @@
         <v>994</v>
       </c>
       <c r="D699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13838,7 +13877,7 @@
         <v>1258</v>
       </c>
       <c r="D700">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13852,7 +13891,7 @@
         <v>263</v>
       </c>
       <c r="D701">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13866,7 +13905,7 @@
         <v>298</v>
       </c>
       <c r="D702">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13880,7 +13919,7 @@
         <v>742</v>
       </c>
       <c r="D703">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="704" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13894,7 +13933,7 @@
         <v>748</v>
       </c>
       <c r="D704">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="705" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13908,7 +13947,7 @@
         <v>4203</v>
       </c>
       <c r="D705">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13922,7 +13961,7 @@
         <v>939</v>
       </c>
       <c r="D706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13936,7 +13975,7 @@
         <v>197</v>
       </c>
       <c r="D707">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13950,7 +13989,7 @@
         <v>1082</v>
       </c>
       <c r="D708">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="709" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13964,7 +14003,7 @@
         <v>678</v>
       </c>
       <c r="D709">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13978,7 +14017,7 @@
         <v>694</v>
       </c>
       <c r="D710">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -13992,7 +14031,7 @@
         <v>272</v>
       </c>
       <c r="D711">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14020,7 +14059,7 @@
         <v>570</v>
       </c>
       <c r="D713">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="714" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14034,7 +14073,7 @@
         <v>9999</v>
       </c>
       <c r="D714">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="715" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14048,7 +14087,7 @@
         <v>518</v>
       </c>
       <c r="D715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14062,7 +14101,7 @@
         <v>416</v>
       </c>
       <c r="D716">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14076,7 +14115,7 @@
         <v>290</v>
       </c>
       <c r="D717">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14090,7 +14129,7 @@
         <v>3616</v>
       </c>
       <c r="D718">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="719" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14104,7 +14143,7 @@
         <v>3608</v>
       </c>
       <c r="D719">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="720" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14132,7 +14171,7 @@
         <v>4008</v>
       </c>
       <c r="D721">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14146,7 +14185,7 @@
         <v>286</v>
       </c>
       <c r="D722">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14188,7 +14227,7 @@
         <v>1327</v>
       </c>
       <c r="D725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14202,7 +14241,7 @@
         <v>3653</v>
       </c>
       <c r="D726">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14216,7 +14255,7 @@
         <v>3637</v>
       </c>
       <c r="D727">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="728" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14230,7 +14269,7 @@
         <v>1063</v>
       </c>
       <c r="D728">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="729" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14244,7 +14283,7 @@
         <v>344</v>
       </c>
       <c r="D729">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14258,7 +14297,7 @@
         <v>230</v>
       </c>
       <c r="D730">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14272,7 +14311,7 @@
         <v>668</v>
       </c>
       <c r="D731">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14300,7 +14339,7 @@
         <v>325</v>
       </c>
       <c r="D733">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14314,7 +14353,7 @@
         <v>757</v>
       </c>
       <c r="D734">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="735" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14328,7 +14367,7 @@
         <v>58</v>
       </c>
       <c r="D735">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="736" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14342,7 +14381,7 @@
         <v>1222</v>
       </c>
       <c r="D736">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14398,7 +14437,7 @@
         <v>99</v>
       </c>
       <c r="D740">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="741" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14412,7 +14451,7 @@
         <v>3610</v>
       </c>
       <c r="D741">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="742" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14426,7 +14465,7 @@
         <v>648</v>
       </c>
       <c r="D742">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14440,7 +14479,7 @@
         <v>22</v>
       </c>
       <c r="D743">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="744" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14454,7 +14493,7 @@
         <v>843</v>
       </c>
       <c r="D744">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="745" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14468,7 +14507,7 @@
         <v>4101</v>
       </c>
       <c r="D745">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14496,7 +14535,7 @@
         <v>97</v>
       </c>
       <c r="D747">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14510,7 +14549,7 @@
         <v>66</v>
       </c>
       <c r="D748">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="749" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14538,7 +14577,7 @@
         <v>421</v>
       </c>
       <c r="D750">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14552,7 +14591,7 @@
         <v>765</v>
       </c>
       <c r="D751">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14566,7 +14605,7 @@
         <v>378</v>
       </c>
       <c r="D752">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14580,7 +14619,7 @@
         <v>520</v>
       </c>
       <c r="D753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14594,7 +14633,7 @@
         <v>3605</v>
       </c>
       <c r="D754">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="755" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14636,7 +14675,7 @@
         <v>670</v>
       </c>
       <c r="D757">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="758" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14650,7 +14689,7 @@
         <v>563</v>
       </c>
       <c r="D758">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14664,7 +14703,7 @@
         <v>732</v>
       </c>
       <c r="D759">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="760" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14678,7 +14717,7 @@
         <v>395</v>
       </c>
       <c r="D760">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14692,7 +14731,7 @@
         <v>130</v>
       </c>
       <c r="D761">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14706,7 +14745,7 @@
         <v>729</v>
       </c>
       <c r="D762">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="763" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14720,7 +14759,7 @@
         <v>194</v>
       </c>
       <c r="D763">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14734,7 +14773,7 @@
         <v>213</v>
       </c>
       <c r="D764">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14748,7 +14787,7 @@
         <v>425</v>
       </c>
       <c r="D765">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14762,7 +14801,7 @@
         <v>791</v>
       </c>
       <c r="D766">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="767" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14776,7 +14815,7 @@
         <v>1315</v>
       </c>
       <c r="D767">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14790,7 +14829,7 @@
         <v>1184</v>
       </c>
       <c r="D768">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14804,7 +14843,7 @@
         <v>3648</v>
       </c>
       <c r="D769">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14818,7 +14857,7 @@
         <v>4551</v>
       </c>
       <c r="D770">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14832,7 +14871,7 @@
         <v>1124</v>
       </c>
       <c r="D771">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14846,7 +14885,7 @@
         <v>408</v>
       </c>
       <c r="D772">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14860,7 +14899,7 @@
         <v>1197</v>
       </c>
       <c r="D773">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14874,7 +14913,7 @@
         <v>524</v>
       </c>
       <c r="D774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14888,7 +14927,7 @@
         <v>396</v>
       </c>
       <c r="D775">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="776" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14902,7 +14941,7 @@
         <v>315</v>
       </c>
       <c r="D776">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14930,7 +14969,7 @@
         <v>309</v>
       </c>
       <c r="D778">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="779" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14944,7 +14983,7 @@
         <v>80</v>
       </c>
       <c r="D779">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14958,7 +14997,7 @@
         <v>9100</v>
       </c>
       <c r="D780">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="781" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -14986,7 +15025,7 @@
         <v>55</v>
       </c>
       <c r="D782">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="783" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15014,7 +15053,7 @@
         <v>1366</v>
       </c>
       <c r="D784">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15028,7 +15067,7 @@
         <v>590</v>
       </c>
       <c r="D785">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15042,7 +15081,7 @@
         <v>4303</v>
       </c>
       <c r="D786">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="787" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15056,7 +15095,7 @@
         <v>405</v>
       </c>
       <c r="D787">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15070,7 +15109,7 @@
         <v>296</v>
       </c>
       <c r="D788">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15098,7 +15137,7 @@
         <v>1057</v>
       </c>
       <c r="D790">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="791" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15112,7 +15151,7 @@
         <v>1314</v>
       </c>
       <c r="D791">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="792" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15126,7 +15165,7 @@
         <v>312</v>
       </c>
       <c r="D792">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="793" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15140,7 +15179,7 @@
         <v>686</v>
       </c>
       <c r="D793">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="794" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15154,7 +15193,7 @@
         <v>858</v>
       </c>
       <c r="D794">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15168,7 +15207,7 @@
         <v>827</v>
       </c>
       <c r="D795">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15182,7 +15221,7 @@
         <v>1071</v>
       </c>
       <c r="D796">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="797" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15196,7 +15235,7 @@
         <v>1259</v>
       </c>
       <c r="D797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15210,7 +15249,7 @@
         <v>15</v>
       </c>
       <c r="D798">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="799" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15238,7 +15277,7 @@
         <v>1061</v>
       </c>
       <c r="D800">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="801" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15252,7 +15291,7 @@
         <v>3790</v>
       </c>
       <c r="D801">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="802" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15266,7 +15305,7 @@
         <v>1284</v>
       </c>
       <c r="D802">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15280,7 +15319,7 @@
         <v>257</v>
       </c>
       <c r="D803">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="804" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15308,7 +15347,7 @@
         <v>447</v>
       </c>
       <c r="D805">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15322,7 +15361,7 @@
         <v>833</v>
       </c>
       <c r="D806">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="807" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15350,7 +15389,7 @@
         <v>844</v>
       </c>
       <c r="D808">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15364,7 +15403,7 @@
         <v>2045</v>
       </c>
       <c r="D809">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="810" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15378,7 +15417,7 @@
         <v>3767</v>
       </c>
       <c r="D810">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15406,7 +15445,7 @@
         <v>809</v>
       </c>
       <c r="D812">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="813" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15420,7 +15459,7 @@
         <v>522</v>
       </c>
       <c r="D813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15434,7 +15473,7 @@
         <v>433</v>
       </c>
       <c r="D814">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15448,7 +15487,7 @@
         <v>777</v>
       </c>
       <c r="D815">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15462,7 +15501,7 @@
         <v>705</v>
       </c>
       <c r="D816">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15476,7 +15515,7 @@
         <v>1147</v>
       </c>
       <c r="D817">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="818" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15490,7 +15529,7 @@
         <v>4014</v>
       </c>
       <c r="D818">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="819" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15518,7 +15557,7 @@
         <v>174</v>
       </c>
       <c r="D820">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15532,7 +15571,7 @@
         <v>1254</v>
       </c>
       <c r="D821">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15546,7 +15585,7 @@
         <v>523</v>
       </c>
       <c r="D822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15560,7 +15599,7 @@
         <v>3655</v>
       </c>
       <c r="D823">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="824" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15588,7 +15627,7 @@
         <v>1419</v>
       </c>
       <c r="D825">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="826" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15602,7 +15641,7 @@
         <v>1195</v>
       </c>
       <c r="D826">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="827" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15616,7 +15655,7 @@
         <v>1280</v>
       </c>
       <c r="D827">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="828" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15630,7 +15669,7 @@
         <v>851</v>
       </c>
       <c r="D828">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="829" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15644,7 +15683,7 @@
         <v>359</v>
       </c>
       <c r="D829">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15658,7 +15697,7 @@
         <v>808</v>
       </c>
       <c r="D830">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15672,7 +15711,7 @@
         <v>553</v>
       </c>
       <c r="D831">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15700,7 +15739,7 @@
         <v>256</v>
       </c>
       <c r="D833">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15714,7 +15753,7 @@
         <v>11</v>
       </c>
       <c r="D834">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="835" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15728,7 +15767,7 @@
         <v>165</v>
       </c>
       <c r="D835">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="836" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15742,7 +15781,7 @@
         <v>402</v>
       </c>
       <c r="D836">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15756,7 +15795,7 @@
         <v>699</v>
       </c>
       <c r="D837">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="838" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15770,7 +15809,7 @@
         <v>2047</v>
       </c>
       <c r="D838">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="839" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15784,7 +15823,7 @@
         <v>69</v>
       </c>
       <c r="D839">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15798,7 +15837,7 @@
         <v>348</v>
       </c>
       <c r="D840">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15826,7 +15865,7 @@
         <v>2048</v>
       </c>
       <c r="D842">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="843" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15840,7 +15879,7 @@
         <v>331</v>
       </c>
       <c r="D843">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15854,7 +15893,7 @@
         <v>602</v>
       </c>
       <c r="D844">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15868,7 +15907,7 @@
         <v>1236</v>
       </c>
       <c r="D845">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15882,7 +15921,7 @@
         <v>825</v>
       </c>
       <c r="D846">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="847" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15896,7 +15935,7 @@
         <v>1143</v>
       </c>
       <c r="D847">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15910,7 +15949,7 @@
         <v>7200</v>
       </c>
       <c r="D848">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="849" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15924,7 +15963,7 @@
         <v>186</v>
       </c>
       <c r="D849">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="850" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15938,7 +15977,7 @@
         <v>3787</v>
       </c>
       <c r="D850">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="851" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15952,7 +15991,7 @@
         <v>3713</v>
       </c>
       <c r="D851">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="852" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15966,7 +16005,7 @@
         <v>158</v>
       </c>
       <c r="D852">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -15980,7 +16019,7 @@
         <v>1041</v>
       </c>
       <c r="D853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16008,7 +16047,7 @@
         <v>435</v>
       </c>
       <c r="D855">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16022,7 +16061,7 @@
         <v>7300</v>
       </c>
       <c r="D856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16036,7 +16075,7 @@
         <v>2500</v>
       </c>
       <c r="D857">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="858" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16050,7 +16089,7 @@
         <v>3555</v>
       </c>
       <c r="D858">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="859" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16064,7 +16103,7 @@
         <v>693</v>
       </c>
       <c r="D859">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16078,7 +16117,7 @@
         <v>1242</v>
       </c>
       <c r="D860">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="861" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16092,7 +16131,7 @@
         <v>792</v>
       </c>
       <c r="D861">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="862" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16106,7 +16145,7 @@
         <v>246</v>
       </c>
       <c r="D862">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="863" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16120,7 +16159,7 @@
         <v>7400</v>
       </c>
       <c r="D863">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="864" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16134,7 +16173,7 @@
         <v>525</v>
       </c>
       <c r="D864">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="865" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16148,7 +16187,7 @@
         <v>578</v>
       </c>
       <c r="D865">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16162,7 +16201,7 @@
         <v>587</v>
       </c>
       <c r="D866">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16176,7 +16215,7 @@
         <v>2046</v>
       </c>
       <c r="D867">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="868" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16190,7 +16229,7 @@
         <v>942</v>
       </c>
       <c r="D868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16204,7 +16243,7 @@
         <v>526</v>
       </c>
       <c r="D869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16232,7 +16271,7 @@
         <v>1238</v>
       </c>
       <c r="D871">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16246,7 +16285,7 @@
         <v>7500</v>
       </c>
       <c r="D872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16260,7 +16299,7 @@
         <v>1170</v>
       </c>
       <c r="D873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16274,7 +16313,7 @@
         <v>1245</v>
       </c>
       <c r="D874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16288,7 +16327,7 @@
         <v>3567</v>
       </c>
       <c r="D875">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16302,7 +16341,7 @@
         <v>1156</v>
       </c>
       <c r="D876">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16344,7 +16383,7 @@
         <v>1360</v>
       </c>
       <c r="D879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16358,7 +16397,7 @@
         <v>454</v>
       </c>
       <c r="D880">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16372,7 +16411,7 @@
         <v>1176</v>
       </c>
       <c r="D881">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="882" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16386,7 +16425,7 @@
         <v>610</v>
       </c>
       <c r="D882">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16400,7 +16439,7 @@
         <v>4501</v>
       </c>
       <c r="D883">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="884" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16414,7 +16453,7 @@
         <v>892</v>
       </c>
       <c r="D884">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="885" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16428,7 +16467,7 @@
         <v>376</v>
       </c>
       <c r="D885">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16442,7 +16481,7 @@
         <v>794</v>
       </c>
       <c r="D886">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="887" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16456,7 +16495,7 @@
         <v>1199</v>
       </c>
       <c r="D887">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16470,7 +16509,7 @@
         <v>2035</v>
       </c>
       <c r="D888">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16484,7 +16523,7 @@
         <v>826</v>
       </c>
       <c r="D889">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="890" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16498,7 +16537,7 @@
         <v>528</v>
       </c>
       <c r="D890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16512,7 +16551,7 @@
         <v>737</v>
       </c>
       <c r="D891">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16526,7 +16565,7 @@
         <v>666</v>
       </c>
       <c r="D892">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="893" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16540,7 +16579,7 @@
         <v>810</v>
       </c>
       <c r="D893">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="894" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16568,7 +16607,7 @@
         <v>32</v>
       </c>
       <c r="D895">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="896" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16582,7 +16621,7 @@
         <v>957</v>
       </c>
       <c r="D896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16596,7 +16635,7 @@
         <v>1149</v>
       </c>
       <c r="D897">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="898" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16610,7 +16649,7 @@
         <v>837</v>
       </c>
       <c r="D898">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="899" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16624,7 +16663,7 @@
         <v>711</v>
       </c>
       <c r="D899">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="900" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16638,7 +16677,7 @@
         <v>817</v>
       </c>
       <c r="D900">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="901" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16652,7 +16691,7 @@
         <v>969</v>
       </c>
       <c r="D901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16680,7 +16719,7 @@
         <v>1175</v>
       </c>
       <c r="D903">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16694,7 +16733,7 @@
         <v>530</v>
       </c>
       <c r="D904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16708,7 +16747,7 @@
         <v>156</v>
       </c>
       <c r="D905">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="906" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16722,7 +16761,7 @@
         <v>511</v>
       </c>
       <c r="D906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16736,7 +16775,7 @@
         <v>687</v>
       </c>
       <c r="D907">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16750,7 +16789,7 @@
         <v>546</v>
       </c>
       <c r="D908">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16764,7 +16803,7 @@
         <v>273</v>
       </c>
       <c r="D909">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16778,7 +16817,7 @@
         <v>2042</v>
       </c>
       <c r="D910">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16792,7 +16831,7 @@
         <v>436</v>
       </c>
       <c r="D911">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16806,7 +16845,7 @@
         <v>1240</v>
       </c>
       <c r="D912">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16820,7 +16859,7 @@
         <v>74</v>
       </c>
       <c r="D913">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16834,7 +16873,7 @@
         <v>167</v>
       </c>
       <c r="D914">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16848,7 +16887,7 @@
         <v>289</v>
       </c>
       <c r="D915">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16876,7 +16915,7 @@
         <v>367</v>
       </c>
       <c r="D917">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="918" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16890,7 +16929,7 @@
         <v>270</v>
       </c>
       <c r="D918">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16904,7 +16943,7 @@
         <v>676</v>
       </c>
       <c r="D919">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16918,7 +16957,7 @@
         <v>157</v>
       </c>
       <c r="D920">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16932,7 +16971,7 @@
         <v>4503</v>
       </c>
       <c r="D921">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16946,7 +16985,7 @@
         <v>1320</v>
       </c>
       <c r="D922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16960,7 +16999,7 @@
         <v>89</v>
       </c>
       <c r="D923">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16974,7 +17013,7 @@
         <v>82</v>
       </c>
       <c r="D924">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -16988,7 +17027,7 @@
         <v>806</v>
       </c>
       <c r="D925">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17002,7 +17041,7 @@
         <v>813</v>
       </c>
       <c r="D926">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="927" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17016,7 +17055,7 @@
         <v>426</v>
       </c>
       <c r="D927">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17030,7 +17069,7 @@
         <v>532</v>
       </c>
       <c r="D928">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17044,7 +17083,7 @@
         <v>521</v>
       </c>
       <c r="D929">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17058,7 +17097,7 @@
         <v>223</v>
       </c>
       <c r="D930">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17086,7 +17125,7 @@
         <v>4502</v>
       </c>
       <c r="D932">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="933" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17100,7 +17139,7 @@
         <v>514</v>
       </c>
       <c r="D933">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17114,7 +17153,7 @@
         <v>139</v>
       </c>
       <c r="D934">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17128,7 +17167,7 @@
         <v>880</v>
       </c>
       <c r="D935">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="936" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17142,7 +17181,7 @@
         <v>1251</v>
       </c>
       <c r="D936">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="937" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17156,7 +17195,7 @@
         <v>871</v>
       </c>
       <c r="D937">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17170,7 +17209,7 @@
         <v>7600</v>
       </c>
       <c r="D938">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="939" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17226,7 +17265,7 @@
         <v>688</v>
       </c>
       <c r="D942">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="943" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17240,7 +17279,7 @@
         <v>3715</v>
       </c>
       <c r="D943">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="944" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17254,7 +17293,7 @@
         <v>1212</v>
       </c>
       <c r="D944">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17282,7 +17321,7 @@
         <v>779</v>
       </c>
       <c r="D946">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="947" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17296,7 +17335,7 @@
         <v>385</v>
       </c>
       <c r="D947">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17310,7 +17349,7 @@
         <v>318</v>
       </c>
       <c r="D948">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="949" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17324,7 +17363,7 @@
         <v>773</v>
       </c>
       <c r="D949">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17338,7 +17377,7 @@
         <v>319</v>
       </c>
       <c r="D950">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17352,7 +17391,7 @@
         <v>3660</v>
       </c>
       <c r="D951">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17366,7 +17405,7 @@
         <v>708</v>
       </c>
       <c r="D952">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="953" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17394,7 +17433,7 @@
         <v>534</v>
       </c>
       <c r="D954">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="955" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17408,7 +17447,7 @@
         <v>7700</v>
       </c>
       <c r="D955">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="956" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17422,7 +17461,7 @@
         <v>3778</v>
       </c>
       <c r="D956">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="957" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17436,7 +17475,7 @@
         <v>917</v>
       </c>
       <c r="D957">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="958" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17450,7 +17489,7 @@
         <v>531</v>
       </c>
       <c r="D958">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17464,7 +17503,7 @@
         <v>1246</v>
       </c>
       <c r="D959">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17478,7 +17517,7 @@
         <v>1335</v>
       </c>
       <c r="D960">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="961" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17492,7 +17531,7 @@
         <v>2560</v>
       </c>
       <c r="D961">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="962" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17506,7 +17545,7 @@
         <v>593</v>
       </c>
       <c r="D962">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="963" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17520,7 +17559,7 @@
         <v>637</v>
       </c>
       <c r="D963">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17534,7 +17573,7 @@
         <v>1192</v>
       </c>
       <c r="D964">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17548,7 +17587,7 @@
         <v>591</v>
       </c>
       <c r="D965">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17562,7 +17601,7 @@
         <v>53</v>
       </c>
       <c r="D966">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="967" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17590,7 +17629,7 @@
         <v>1151</v>
       </c>
       <c r="D968">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17618,7 +17657,7 @@
         <v>750</v>
       </c>
       <c r="D970">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="971" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17632,7 +17671,7 @@
         <v>838</v>
       </c>
       <c r="D971">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="972" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17646,7 +17685,7 @@
         <v>1104</v>
       </c>
       <c r="D972">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="973" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17660,7 +17699,7 @@
         <v>1105</v>
       </c>
       <c r="D973">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="974" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17674,7 +17713,7 @@
         <v>1313</v>
       </c>
       <c r="D974">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="975" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17688,7 +17727,7 @@
         <v>537</v>
       </c>
       <c r="D975">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17702,7 +17741,7 @@
         <v>767</v>
       </c>
       <c r="D976">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="977" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17716,7 +17755,7 @@
         <v>749</v>
       </c>
       <c r="D977">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="978" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17730,7 +17769,7 @@
         <v>597</v>
       </c>
       <c r="D978">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17772,7 +17811,7 @@
         <v>535</v>
       </c>
       <c r="D981">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17786,7 +17825,7 @@
         <v>2059</v>
       </c>
       <c r="D982">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="983" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17800,7 +17839,7 @@
         <v>3615</v>
       </c>
       <c r="D983">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="984" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17814,7 +17853,7 @@
         <v>536</v>
       </c>
       <c r="D984">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="985" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17828,7 +17867,7 @@
         <v>281</v>
       </c>
       <c r="D985">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="986" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17842,7 +17881,7 @@
         <v>7800</v>
       </c>
       <c r="D986">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="987" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17856,7 +17895,7 @@
         <v>171</v>
       </c>
       <c r="D987">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="988" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17870,7 +17909,7 @@
         <v>599</v>
       </c>
       <c r="D988">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17884,7 +17923,7 @@
         <v>2053</v>
       </c>
       <c r="D989">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="990" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17898,7 +17937,7 @@
         <v>1231</v>
       </c>
       <c r="D990">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="991" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17912,7 +17951,7 @@
         <v>7900</v>
       </c>
       <c r="D991">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="992" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17926,7 +17965,7 @@
         <v>839</v>
       </c>
       <c r="D992">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="993" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17940,7 +17979,7 @@
         <v>413</v>
       </c>
       <c r="D993">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17954,7 +17993,7 @@
         <v>1180</v>
       </c>
       <c r="D994">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17968,7 +18007,7 @@
         <v>1213</v>
       </c>
       <c r="D995">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17982,7 +18021,7 @@
         <v>465</v>
       </c>
       <c r="D996">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17996,7 +18035,7 @@
         <v>1136</v>
       </c>
       <c r="D997">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="998" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18024,7 +18063,7 @@
         <v>198</v>
       </c>
       <c r="D999">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18038,7 +18077,7 @@
         <v>1150</v>
       </c>
       <c r="D1000">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18052,7 +18091,7 @@
         <v>1102</v>
       </c>
       <c r="D1001">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18066,7 +18105,7 @@
         <v>1262</v>
       </c>
       <c r="D1002">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18080,7 +18119,7 @@
         <v>1113</v>
       </c>
       <c r="D1003">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1004" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18094,7 +18133,7 @@
         <v>1345</v>
       </c>
       <c r="D1004">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18108,7 +18147,7 @@
         <v>276</v>
       </c>
       <c r="D1005">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1006" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18122,7 +18161,7 @@
         <v>1148</v>
       </c>
       <c r="D1006">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1007" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18136,7 +18175,7 @@
         <v>774</v>
       </c>
       <c r="D1007">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1008" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18150,7 +18189,7 @@
         <v>1221</v>
       </c>
       <c r="D1008">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18164,7 +18203,7 @@
         <v>613</v>
       </c>
       <c r="D1009">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18178,7 +18217,7 @@
         <v>796</v>
       </c>
       <c r="D1010">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1011" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18192,7 +18231,7 @@
         <v>636</v>
       </c>
       <c r="D1011">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18220,7 +18259,7 @@
         <v>1079</v>
       </c>
       <c r="D1013">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1014" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18234,7 +18273,7 @@
         <v>8000</v>
       </c>
       <c r="D1014">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1015" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18248,7 +18287,7 @@
         <v>612</v>
       </c>
       <c r="D1015">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1016" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18262,7 +18301,7 @@
         <v>567</v>
       </c>
       <c r="D1016">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1017" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18276,7 +18315,7 @@
         <v>1234</v>
       </c>
       <c r="D1017">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18290,7 +18329,7 @@
         <v>334</v>
       </c>
       <c r="D1018">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1019" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18318,7 +18357,7 @@
         <v>195</v>
       </c>
       <c r="D1020">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1021" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18332,7 +18371,7 @@
         <v>4025</v>
       </c>
       <c r="D1021">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18346,7 +18385,7 @@
         <v>3781</v>
       </c>
       <c r="D1022">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1023" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18360,7 +18399,7 @@
         <v>615</v>
       </c>
       <c r="D1023">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18374,7 +18413,7 @@
         <v>1211</v>
       </c>
       <c r="D1024">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1025" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18388,7 +18427,7 @@
         <v>964</v>
       </c>
       <c r="D1025">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1026" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18402,7 +18441,7 @@
         <v>972</v>
       </c>
       <c r="D1026">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18416,7 +18455,7 @@
         <v>766</v>
       </c>
       <c r="D1027">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18430,7 +18469,7 @@
         <v>1179</v>
       </c>
       <c r="D1028">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18444,7 +18483,7 @@
         <v>1052</v>
       </c>
       <c r="D1029">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1030" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18458,7 +18497,7 @@
         <v>1167</v>
       </c>
       <c r="D1030">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1031" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18472,7 +18511,7 @@
         <v>414</v>
       </c>
       <c r="D1031">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1032" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18486,7 +18525,7 @@
         <v>3601</v>
       </c>
       <c r="D1032">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1033" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18500,7 +18539,7 @@
         <v>638</v>
       </c>
       <c r="D1033">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18514,7 +18553,7 @@
         <v>4024</v>
       </c>
       <c r="D1034">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1035" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18528,7 +18567,7 @@
         <v>1243</v>
       </c>
       <c r="D1035">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1036" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18542,7 +18581,7 @@
         <v>1347</v>
       </c>
       <c r="D1036">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1037" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18556,7 +18595,7 @@
         <v>4100</v>
       </c>
       <c r="D1037">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1038" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18570,7 +18609,7 @@
         <v>2620</v>
       </c>
       <c r="D1038">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1039" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18598,7 +18637,7 @@
         <v>6800</v>
       </c>
       <c r="D1040">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1041" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18612,7 +18651,7 @@
         <v>9500</v>
       </c>
       <c r="D1041">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1042" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18626,7 +18665,7 @@
         <v>2630</v>
       </c>
       <c r="D1042">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1043" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18640,7 +18679,7 @@
         <v>2300</v>
       </c>
       <c r="D1043">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1044" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18654,7 +18693,7 @@
         <v>9600</v>
       </c>
       <c r="D1044">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1045" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18668,7 +18707,7 @@
         <v>1137</v>
       </c>
       <c r="D1045">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18682,7 +18721,7 @@
         <v>8200</v>
       </c>
       <c r="D1046">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1047" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18696,7 +18735,7 @@
         <v>1034</v>
       </c>
       <c r="D1047">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1048" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18724,7 +18763,7 @@
         <v>78</v>
       </c>
       <c r="D1049">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18738,7 +18777,7 @@
         <v>469</v>
       </c>
       <c r="D1050">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1051" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18752,7 +18791,7 @@
         <v>2800</v>
       </c>
       <c r="D1051">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1052" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18794,7 +18833,7 @@
         <v>543</v>
       </c>
       <c r="D1054">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18808,7 +18847,7 @@
         <v>1334</v>
       </c>
       <c r="D1055">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1056" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18822,7 +18861,7 @@
         <v>990</v>
       </c>
       <c r="D1056">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18836,7 +18875,7 @@
         <v>2640</v>
       </c>
       <c r="D1057">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1058" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18850,7 +18889,7 @@
         <v>26</v>
       </c>
       <c r="D1058">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1059" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18878,7 +18917,7 @@
         <v>8300</v>
       </c>
       <c r="D1060">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1061" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18906,7 +18945,7 @@
         <v>564</v>
       </c>
       <c r="D1062">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1063" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18920,7 +18959,7 @@
         <v>354</v>
       </c>
       <c r="D1063">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18934,7 +18973,7 @@
         <v>390</v>
       </c>
       <c r="D1064">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1065" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18948,7 +18987,7 @@
         <v>444</v>
       </c>
       <c r="D1065">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1066" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18962,7 +19001,7 @@
         <v>1161</v>
       </c>
       <c r="D1066">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1067" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18976,7 +19015,7 @@
         <v>2051</v>
       </c>
       <c r="D1067">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1068" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18990,7 +19029,7 @@
         <v>2016</v>
       </c>
       <c r="D1068">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1069" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19004,7 +19043,7 @@
         <v>362</v>
       </c>
       <c r="D1069">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1070" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19018,7 +19057,7 @@
         <v>539</v>
       </c>
       <c r="D1070">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1071" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19032,7 +19071,7 @@
         <v>997</v>
       </c>
       <c r="D1071">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1072" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19046,7 +19085,7 @@
         <v>3619</v>
       </c>
       <c r="D1072">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1073" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19060,7 +19099,7 @@
         <v>854</v>
       </c>
       <c r="D1073">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1074" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19074,7 +19113,7 @@
         <v>8400</v>
       </c>
       <c r="D1074">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1075" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19102,7 +19141,7 @@
         <v>540</v>
       </c>
       <c r="D1076">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1077" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19116,7 +19155,7 @@
         <v>3568</v>
       </c>
       <c r="D1077">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1078" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19130,7 +19169,7 @@
         <v>542</v>
       </c>
       <c r="D1078">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19144,7 +19183,7 @@
         <v>3565</v>
       </c>
       <c r="D1079">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1080" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19158,7 +19197,7 @@
         <v>616</v>
       </c>
       <c r="D1080">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1081" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19172,7 +19211,7 @@
         <v>922</v>
       </c>
       <c r="D1081">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19186,7 +19225,7 @@
         <v>1069</v>
       </c>
       <c r="D1082">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1083" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19200,7 +19239,7 @@
         <v>4702</v>
       </c>
       <c r="D1083">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1084" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19214,7 +19253,7 @@
         <v>206</v>
       </c>
       <c r="D1084">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1085" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19228,7 +19267,7 @@
         <v>735</v>
       </c>
       <c r="D1085">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1086" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19242,7 +19281,7 @@
         <v>445</v>
       </c>
       <c r="D1086">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1087" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19256,7 +19295,7 @@
         <v>372</v>
       </c>
       <c r="D1087">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1088" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19270,7 +19309,7 @@
         <v>8500</v>
       </c>
       <c r="D1088">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1089" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19284,7 +19323,7 @@
         <v>8600</v>
       </c>
       <c r="D1089">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1090" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19298,7 +19337,7 @@
         <v>135</v>
       </c>
       <c r="D1090">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1091" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19312,7 +19351,7 @@
         <v>184</v>
       </c>
       <c r="D1091">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1092" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19326,7 +19365,7 @@
         <v>335</v>
       </c>
       <c r="D1092">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1093" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19340,7 +19379,7 @@
         <v>2650</v>
       </c>
       <c r="D1093">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1094" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19354,7 +19393,7 @@
         <v>178</v>
       </c>
       <c r="D1094">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1095" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19368,7 +19407,7 @@
         <v>122</v>
       </c>
       <c r="D1095">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1096" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19396,7 +19435,7 @@
         <v>339</v>
       </c>
       <c r="D1097">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1098" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19410,7 +19449,7 @@
         <v>460</v>
       </c>
       <c r="D1098">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1099" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19424,7 +19463,7 @@
         <v>127</v>
       </c>
       <c r="D1099">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19438,7 +19477,7 @@
         <v>789</v>
       </c>
       <c r="D1100">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1101" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19452,7 +19491,7 @@
         <v>713</v>
       </c>
       <c r="D1101">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19466,7 +19505,7 @@
         <v>8700</v>
       </c>
       <c r="D1102">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1103" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19480,7 +19519,7 @@
         <v>1228</v>
       </c>
       <c r="D1103">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19494,7 +19533,7 @@
         <v>247</v>
       </c>
       <c r="D1104">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1105" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19508,7 +19547,7 @@
         <v>437</v>
       </c>
       <c r="D1105">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1106" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19536,7 +19575,7 @@
         <v>324</v>
       </c>
       <c r="D1107">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1108" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19550,7 +19589,7 @@
         <v>282</v>
       </c>
       <c r="D1108">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1109" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19578,7 +19617,7 @@
         <v>913</v>
       </c>
       <c r="D1110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1111" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19592,7 +19631,7 @@
         <v>1286</v>
       </c>
       <c r="D1111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19634,7 +19673,7 @@
         <v>861</v>
       </c>
       <c r="D1114">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1115" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19648,7 +19687,7 @@
         <v>885</v>
       </c>
       <c r="D1115">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1116" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19662,7 +19701,7 @@
         <v>36</v>
       </c>
       <c r="D1116">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1117" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19676,7 +19715,7 @@
         <v>284</v>
       </c>
       <c r="D1117">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1118" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19690,7 +19729,7 @@
         <v>293</v>
       </c>
       <c r="D1118">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1119" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19718,7 +19757,7 @@
         <v>2008</v>
       </c>
       <c r="D1120">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1121" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19732,7 +19771,7 @@
         <v>18</v>
       </c>
       <c r="D1121">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1122" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19746,7 +19785,7 @@
         <v>259</v>
       </c>
       <c r="D1122">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1123" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19760,7 +19799,7 @@
         <v>329</v>
       </c>
       <c r="D1123">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1124" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19774,7 +19813,7 @@
         <v>1058</v>
       </c>
       <c r="D1124">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1125" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19788,7 +19827,7 @@
         <v>739</v>
       </c>
       <c r="D1125">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1126" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19802,7 +19841,7 @@
         <v>2049</v>
       </c>
       <c r="D1126">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1127" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19816,7 +19855,7 @@
         <v>327</v>
       </c>
       <c r="D1127">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1128" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19830,7 +19869,7 @@
         <v>27</v>
       </c>
       <c r="D1128">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1129" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19844,7 +19883,7 @@
         <v>1223</v>
       </c>
       <c r="D1129">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1130" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19858,7 +19897,7 @@
         <v>2015</v>
       </c>
       <c r="D1130">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1131" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19872,7 +19911,7 @@
         <v>2057</v>
       </c>
       <c r="D1131">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1132" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19886,7 +19925,7 @@
         <v>555</v>
       </c>
       <c r="D1132">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1133" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19900,7 +19939,7 @@
         <v>306</v>
       </c>
       <c r="D1133">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1134" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19928,7 +19967,7 @@
         <v>1031</v>
       </c>
       <c r="D1135">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1136" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19942,7 +19981,7 @@
         <v>741</v>
       </c>
       <c r="D1136">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1137" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19956,7 +19995,7 @@
         <v>761</v>
       </c>
       <c r="D1137">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1138" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19970,7 +20009,7 @@
         <v>394</v>
       </c>
       <c r="D1138">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1139" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19984,7 +20023,7 @@
         <v>1304</v>
       </c>
       <c r="D1139">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1140" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -19998,7 +20037,7 @@
         <v>614</v>
       </c>
       <c r="D1140">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1141" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20040,7 +20079,7 @@
         <v>456</v>
       </c>
       <c r="D1143">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1144" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20054,7 +20093,7 @@
         <v>1235</v>
       </c>
       <c r="D1144">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1145" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20068,7 +20107,7 @@
         <v>224</v>
       </c>
       <c r="D1145">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1146" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20082,7 +20121,7 @@
         <v>527</v>
       </c>
       <c r="D1146">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1147" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20096,7 +20135,7 @@
         <v>7</v>
       </c>
       <c r="D1147">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1148" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20110,7 +20149,7 @@
         <v>1266</v>
       </c>
       <c r="D1148">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1149" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20124,7 +20163,7 @@
         <v>865</v>
       </c>
       <c r="D1149">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1150" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20138,7 +20177,7 @@
         <v>658</v>
       </c>
       <c r="D1150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1151" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20166,7 +20205,7 @@
         <v>1165</v>
       </c>
       <c r="D1152">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1153" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20180,7 +20219,7 @@
         <v>1160</v>
       </c>
       <c r="D1153">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1154" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20194,7 +20233,7 @@
         <v>873</v>
       </c>
       <c r="D1154">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1155" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20222,7 +20261,7 @@
         <v>812</v>
       </c>
       <c r="D1156">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1157" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20250,7 +20289,7 @@
         <v>366</v>
       </c>
       <c r="D1158">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1159" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20278,7 +20317,7 @@
         <v>432</v>
       </c>
       <c r="D1160">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1161" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20292,7 +20331,7 @@
         <v>1337</v>
       </c>
       <c r="D1161">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1162" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20306,7 +20345,7 @@
         <v>1287</v>
       </c>
       <c r="D1162">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1163" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20320,7 +20359,7 @@
         <v>1132</v>
       </c>
       <c r="D1163">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1164" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20334,7 +20373,7 @@
         <v>538</v>
       </c>
       <c r="D1164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1165" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20348,7 +20387,7 @@
         <v>4009</v>
       </c>
       <c r="D1165">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1166" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20376,7 +20415,7 @@
         <v>661</v>
       </c>
       <c r="D1167">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1168" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20390,7 +20429,7 @@
         <v>264</v>
       </c>
       <c r="D1168">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1169" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20404,7 +20443,7 @@
         <v>237</v>
       </c>
       <c r="D1169">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1170" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20418,7 +20457,7 @@
         <v>921</v>
       </c>
       <c r="D1170">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1171" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20432,7 +20471,7 @@
         <v>3720</v>
       </c>
       <c r="D1171">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1172" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20446,7 +20485,7 @@
         <v>232</v>
       </c>
       <c r="D1172">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1173" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20460,7 +20499,7 @@
         <v>692</v>
       </c>
       <c r="D1173">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1174" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20474,7 +20513,7 @@
         <v>846</v>
       </c>
       <c r="D1174">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1175" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20488,7 +20527,7 @@
         <v>8800</v>
       </c>
       <c r="D1175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20502,7 +20541,7 @@
         <v>3649</v>
       </c>
       <c r="D1176">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1177" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20516,7 +20555,7 @@
         <v>1233</v>
       </c>
       <c r="D1177">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1178" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20530,7 +20569,7 @@
         <v>292</v>
       </c>
       <c r="D1178">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1179" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20544,7 +20583,7 @@
         <v>1114</v>
       </c>
       <c r="D1179">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1180" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20558,7 +20597,7 @@
         <v>126</v>
       </c>
       <c r="D1180">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1181" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20572,7 +20611,7 @@
         <v>398</v>
       </c>
       <c r="D1181">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1182" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20586,7 +20625,7 @@
         <v>1045</v>
       </c>
       <c r="D1182">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1183" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20600,7 +20639,7 @@
         <v>763</v>
       </c>
       <c r="D1183">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1184" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20614,7 +20653,7 @@
         <v>2062</v>
       </c>
       <c r="D1184">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1185" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20628,7 +20667,7 @@
         <v>2061</v>
       </c>
       <c r="D1185">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1186" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20642,7 +20681,7 @@
         <v>1172</v>
       </c>
       <c r="D1186">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1187" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20656,7 +20695,7 @@
         <v>3558</v>
       </c>
       <c r="D1187">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1188" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20684,7 +20723,7 @@
         <v>163</v>
       </c>
       <c r="D1189">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1190" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20698,7 +20737,7 @@
         <v>10</v>
       </c>
       <c r="D1190">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1191" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20712,7 +20751,7 @@
         <v>5000</v>
       </c>
       <c r="D1191">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1192" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20726,7 +20765,7 @@
         <v>84</v>
       </c>
       <c r="D1192">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1193" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20740,7 +20779,7 @@
         <v>287</v>
       </c>
       <c r="D1193">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1194" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20754,7 +20793,7 @@
         <v>154</v>
       </c>
       <c r="D1194">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1195" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20768,7 +20807,7 @@
         <v>103</v>
       </c>
       <c r="D1195">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1196" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20782,7 +20821,7 @@
         <v>719</v>
       </c>
       <c r="D1196">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1197" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20796,7 +20835,7 @@
         <v>1054</v>
       </c>
       <c r="D1197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20810,7 +20849,7 @@
         <v>1283</v>
       </c>
       <c r="D1198">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1199" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20838,7 +20877,7 @@
         <v>1051</v>
       </c>
       <c r="D1200">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1201" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20852,7 +20891,7 @@
         <v>2003</v>
       </c>
       <c r="D1201">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1202" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20866,7 +20905,7 @@
         <v>2050</v>
       </c>
       <c r="D1202">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1203" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20880,7 +20919,7 @@
         <v>1237</v>
       </c>
       <c r="D1203">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1204" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20894,7 +20933,7 @@
         <v>727</v>
       </c>
       <c r="D1204">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1205" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20908,7 +20947,7 @@
         <v>744</v>
       </c>
       <c r="D1205">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1206" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20922,7 +20961,7 @@
         <v>814</v>
       </c>
       <c r="D1206">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1207" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20936,7 +20975,7 @@
         <v>1244</v>
       </c>
       <c r="D1207">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1208" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20950,7 +20989,7 @@
         <v>2002</v>
       </c>
       <c r="D1208">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1209" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20964,7 +21003,7 @@
         <v>752</v>
       </c>
       <c r="D1209">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1210" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -20978,7 +21017,7 @@
         <v>709</v>
       </c>
       <c r="D1210">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1211" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -21020,7 +21059,7 @@
         <v>970</v>
       </c>
       <c r="D1213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1214" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -21034,7 +21073,7 @@
         <v>1346</v>
       </c>
       <c r="D1214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -21048,11 +21087,11 @@
         <v>778</v>
       </c>
       <c r="D1215">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D1215" xr:uid="{6B219422-1653-4483-B680-8C290F3A46D6}"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <autoFilter ref="D1:D1215" xr:uid="{787D7934-1281-43AD-A9B7-A681A262AAAF}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>